--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>0:1</t>
   </si>
   <si>
     <t>Tuesday, 15 July, 2025 12:09 AM</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>97.019999999999996</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -44,25 +44,61 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>294.00</t>
   </si>
   <si>
     <t>97.0200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>Tuesday, 15 July, 2025 12:09 AM</t>
+    <t>Tuesday, 15 July, 2025 12:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -720,42 +756,141 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>97.019999999999996</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>193.66</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +904,25 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BABY RELIEF 12.5MG 5 SUPP.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -71,7 +83,22 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
   </si>
   <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
@@ -80,15 +107,45 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>35.6400</t>
   </si>
   <si>
     <t>0:4</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>SELENIUM-ACE 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -98,7 +155,7 @@
     <t>97.0200</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 12:14 AM</t>
+    <t>Tuesday, 15 July, 2025 9:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -756,7 +813,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -765,14 +822,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -789,7 +846,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -798,14 +855,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -815,14 +872,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -831,14 +888,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -848,49 +905,247 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>28</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>193.66</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>30</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>31</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>14</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>31</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>35</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>38</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>39</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>42</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>43</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>46</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>597.94000000000005</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>49</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>50</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +1174,40 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -155,7 +167,22 @@
     <t>97.0200</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:42 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 15 July, 2025 9:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -895,7 +922,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -905,11 +932,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -921,7 +948,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -938,14 +965,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -954,14 +981,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -971,14 +998,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -994,7 +1021,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1004,14 +1031,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1020,14 +1047,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1077,7 +1104,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1093,7 +1120,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1103,49 +1130,115 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>50</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>597.94000000000005</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>48</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
-        <v>49</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
-        <v>50</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>53</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>54</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>619.13999999999999</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>58</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>59</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1204,10 +1297,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -182,7 +182,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:44 AM</t>
+    <t>Tuesday, 15 July, 2025 9:53 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -158,6 +170,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -170,9 +191,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -182,7 +200,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:53 AM</t>
+    <t>Tuesday, 15 July, 2025 10:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -939,7 +957,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -955,7 +973,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -965,11 +983,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -981,7 +999,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -998,14 +1016,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1014,14 +1032,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1031,14 +1049,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1054,7 +1072,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1064,14 +1082,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1080,14 +1098,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1137,7 +1155,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1153,7 +1171,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1163,14 +1181,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1179,66 +1197,132 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>619.13999999999999</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>16</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>57</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>59</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>25</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>60</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>61</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>748.13999999999999</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>63</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>64</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>65</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1307,10 +1391,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -200,7 +200,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 10:16 AM</t>
+    <t>Tuesday, 15 July, 2025 10:17 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -71,6 +71,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -200,7 +209,22 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 10:17 AM</t>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>Tuesday, 15 July, 2025 10:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -907,7 +931,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -917,14 +941,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -933,14 +957,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -950,14 +974,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -966,14 +990,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -983,14 +1007,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -999,14 +1023,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1056,7 +1080,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1072,7 +1096,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1082,14 +1106,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1098,14 +1122,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1115,14 +1139,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1138,7 +1162,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1148,11 +1172,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1164,14 +1188,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1181,14 +1205,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1197,14 +1221,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1237,7 +1261,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1254,7 +1278,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1270,59 +1294,158 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>62</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>28</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>63</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>64</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>748.13999999999999</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>67</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
         <v>63</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>64</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>65</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>67</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>63</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>29</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1010.14</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>71</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>72</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>73</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1401,10 +1524,25 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -224,7 +224,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 10:42 AM</t>
+    <t>Tuesday, 15 July, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -44,24 +44,45 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
     <t>108.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BABY RELIEF 12.5MG 5 SUPP.</t>
   </si>
   <si>
@@ -125,6 +146,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -146,6 +176,54 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LUNGOCORT 0.25MG\2ML AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -158,9 +236,6 @@
     <t>SELENIUM-ACE 30 TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
@@ -188,6 +263,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -200,9 +284,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -224,7 +305,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 10:59 AM</t>
+    <t>Tuesday, 15 July, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -882,7 +963,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -891,14 +972,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -915,7 +996,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -924,14 +1005,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -941,14 +1022,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -957,14 +1038,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -997,7 +1078,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1007,14 +1088,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1023,14 +1104,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1040,14 +1121,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1056,14 +1137,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1096,7 +1177,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1106,14 +1187,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1122,14 +1203,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1139,14 +1220,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1162,7 +1243,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1179,7 +1260,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1195,7 +1276,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1205,11 +1286,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1221,14 +1302,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,14 +1319,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1278,7 +1359,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1294,7 +1375,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1327,24 +1408,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1353,20 +1434,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1377,7 +1458,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1386,66 +1467,330 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1010.14</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>71</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>72</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>73</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>78</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>79</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>20</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>85</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>88</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>35</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>67</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>91</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>93</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>94</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>67</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>95</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>97</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>94</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>67</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>36</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1337.8499999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>98</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>99</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>100</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1539,10 +1884,50 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -305,7 +305,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 11:26 AM</t>
+    <t>Tuesday, 15 July, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DIAX 200MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -177,9 +189,6 @@
   </si>
   <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
   </si>
   <si>
     <t>20.00</t>
@@ -1243,7 +1252,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,14 +1262,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1269,14 +1278,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,14 +1295,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1302,14 +1311,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1319,14 +1328,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1352,14 +1361,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1375,7 +1384,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1392,7 +1401,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1408,7 +1417,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1425,7 +1434,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1441,24 +1450,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1467,31 +1476,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1507,7 +1516,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1540,7 +1549,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,14 +1559,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1606,7 +1615,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1656,7 +1665,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1672,13 +1681,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1689,7 +1698,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1705,21 +1714,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1731,66 +1740,99 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>100</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>97</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>70</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>36</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>37</v>
       </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1337.8499999999999</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>98</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>99</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>100</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1358.8499999999999</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>102</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>103</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1924,10 +1966,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -314,7 +314,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 11:27 AM</t>
+    <t>Tuesday, 15 July, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BIONAL 30 CAP</t>
   </si>
   <si>
@@ -233,6 +245,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -242,6 +266,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>SELENIUM-ACE 30 TABS</t>
   </si>
   <si>
@@ -281,6 +314,15 @@
     <t>77.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -296,15 +338,12 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -314,7 +353,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 11:28 AM</t>
+    <t>Tuesday, 15 July, 2025 12:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1087,7 +1126,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1097,14 +1136,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1113,14 +1152,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1137,7 +1176,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1170,7 +1209,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1203,7 +1242,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1219,7 +1258,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1229,11 +1268,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1245,14 +1284,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1269,7 +1308,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1285,7 +1324,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1295,14 +1334,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1311,14 +1350,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1328,14 +1367,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1344,14 +1383,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1361,14 +1400,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1384,7 +1423,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1394,14 +1433,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1410,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1427,14 +1466,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1443,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1460,14 +1499,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1476,31 +1515,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1509,20 +1548,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1533,7 +1572,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1542,14 +1581,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1559,11 +1598,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1575,14 +1614,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1592,14 +1631,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1608,7 +1647,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1625,14 +1664,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1641,14 +1680,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1658,14 +1697,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1674,14 +1713,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1691,14 +1730,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1707,28 +1746,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1740,28 +1779,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1773,66 +1812,198 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1358.8499999999999</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>101</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>102</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>103</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>105</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>39</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>74</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>108</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>79</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>74</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>111</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>79</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>74</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>40</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1481.4000000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>114</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>115</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>116</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1971,10 +2142,30 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>133.0000</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -227,6 +236,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>LUNGOCORT 0.25MG\2ML AMP</t>
   </si>
   <si>
@@ -251,9 +272,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -323,6 +341,27 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8548:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.5000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -335,9 +374,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
@@ -353,7 +389,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 12:08 PM</t>
+    <t>Tuesday, 15 July, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1456,7 +1492,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1473,7 +1509,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1489,7 +1525,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1506,7 +1542,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1522,7 +1558,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1539,7 +1575,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1555,24 +1591,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1581,14 +1617,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1598,14 +1634,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1614,31 +1650,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1654,7 +1690,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,7 +1700,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1687,7 +1723,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1720,7 +1756,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1730,14 +1766,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1746,14 +1782,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1763,14 +1799,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1779,14 +1815,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1819,7 +1855,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1836,7 +1872,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,7 +1905,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1885,13 +1921,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1902,7 +1938,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1918,21 +1954,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1944,66 +1980,198 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>117</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>12</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>13</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>118</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>120</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>39</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>81</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>112</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>122</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>86</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>81</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>123</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>86</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>81</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>40</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>41</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1481.4000000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>114</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>115</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>116</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1684.9000000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>126</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>127</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>128</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2162,10 +2330,30 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -389,7 +389,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 12:16 PM</t>
+    <t>Tuesday, 15 July, 2025 12:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -389,7 +389,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 12:32 PM</t>
+    <t>Tuesday, 15 July, 2025 12:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -389,7 +389,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 12:33 PM</t>
+    <t>Tuesday, 15 July, 2025 1:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -83,6 +83,21 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>BABY RELIEF 12.5MG 5 SUPP.</t>
   </si>
   <si>
@@ -125,12 +140,18 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -149,6 +170,21 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -218,6 +254,18 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -239,9 +287,6 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -254,18 +299,12 @@
     <t>0:5</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
     <t>27.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -374,7 +413,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -389,7 +428,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 1:12 PM</t>
+    <t>Tuesday, 15 July, 2025 1:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1129,21 +1168,21 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1155,14 +1194,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1172,14 +1211,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1188,14 +1227,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1205,14 +1244,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1221,14 +1260,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1238,14 +1277,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1254,14 +1293,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1271,14 +1310,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1287,14 +1326,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1327,7 +1366,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1344,7 +1383,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1377,7 +1416,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1393,7 +1432,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1403,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1419,7 +1458,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1436,14 +1475,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1452,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1469,14 +1508,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1485,14 +1524,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1502,14 +1541,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1518,14 +1557,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1535,14 +1574,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1551,14 +1590,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1568,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1584,14 +1623,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1601,14 +1640,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1617,14 +1656,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1634,14 +1673,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1650,20 +1689,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1690,7 +1729,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1700,14 +1739,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1723,7 +1762,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1756,7 +1795,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1773,7 +1812,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1789,24 +1828,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1815,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1832,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1855,7 +1894,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1872,7 +1911,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1888,7 +1927,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1905,7 +1944,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1921,7 +1960,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1987,7 +2026,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2037,7 +2076,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2053,24 +2092,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2079,28 +2118,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2112,66 +2151,198 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1684.9000000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>126</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>127</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>128</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>130</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>12</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>13</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>131</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>133</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>25</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>26</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>125</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>135</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>99</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>26</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>136</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>138</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>99</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>26</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>47</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2323.9000000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>139</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>140</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>141</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2350,10 +2521,30 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 1:13 PM</t>
+    <t>Tuesday, 15 July, 2025 1:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 1:15 PM</t>
+    <t>Tuesday, 15 July, 2025 1:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -152,12 +161,6 @@
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -170,6 +173,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -236,15 +251,6 @@
     <t>0:4</t>
   </si>
   <si>
-    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>133.0000</t>
-  </si>
-  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -428,7 +434,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 1:17 PM</t>
+    <t>Tuesday, 15 July, 2025 2:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,7 +1306,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1310,14 +1316,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,14 +1332,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1366,7 +1372,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1383,7 +1389,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1399,7 +1405,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1409,14 +1415,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1425,14 +1431,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1442,14 +1448,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1458,14 +1464,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1475,14 +1481,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1491,14 +1497,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1514,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1530,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,11 +1547,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1557,14 +1563,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,11 +1580,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1590,14 +1596,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1613,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,7 +1629,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1640,11 +1646,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1656,14 +1662,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,14 +1679,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,14 +1695,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1706,14 +1712,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,7 +1728,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1739,14 +1745,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1755,14 +1761,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1772,14 +1778,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,14 +1794,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1811,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,31 +1827,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,31 +1860,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,14 +1893,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,11 +1910,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1920,14 +1926,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,11 +1943,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -1953,14 +1959,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1970,11 +1976,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -1986,14 +1992,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,14 +2009,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,14 +2025,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2036,11 +2042,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2052,14 +2058,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,11 +2075,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2085,7 +2091,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2102,14 +2108,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,14 +2124,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2135,14 +2141,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,14 +2157,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2168,11 +2174,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2184,14 +2190,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2201,14 +2207,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,31 +2223,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2257,7 +2263,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,14 +2289,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2300,49 +2306,82 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2323.9000000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>139</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>140</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>101</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>26</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>40</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2263.9000000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
         <v>141</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>142</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>143</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2541,10 +2580,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -155,273 +155,300 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DIAX 200MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LUNGOCORT 0.25MG\2ML AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>SELENIUM-ACE 30 TABS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8548:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.5000</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DIAX 200MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LUNGOCORT 0.25MG\2ML AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>SELENIUM-ACE 30 TABS</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>TEGRETOL 200MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8548:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>29.5000</t>
-  </si>
-  <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>6:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -434,7 +461,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 2:49 PM</t>
+    <t>Tuesday, 15 July, 2025 2:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1372,7 +1399,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1389,7 +1416,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1455,7 +1482,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1537,7 +1564,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1547,11 +1574,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1563,14 +1590,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1587,7 +1614,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1603,7 +1630,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1620,7 +1647,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1636,7 +1663,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1653,7 +1680,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1669,7 +1696,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1679,14 +1706,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1695,14 +1722,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1712,14 +1739,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1735,7 +1762,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1752,7 +1779,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1761,7 +1788,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1778,14 +1805,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1801,7 +1828,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1818,7 +1845,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1834,7 +1861,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1851,7 +1878,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1867,24 +1894,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1893,31 +1920,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1933,7 +1960,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,7 +1970,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1966,7 +1993,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1999,7 +2026,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2032,7 +2059,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,14 +2085,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2075,11 +2102,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2091,14 +2118,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2108,11 +2135,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2124,7 +2151,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2141,14 +2168,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2157,14 +2184,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2174,14 +2201,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2207,14 +2234,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2240,14 +2267,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2256,7 +2283,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2269,18 +2296,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2296,13 +2323,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2313,7 +2340,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2329,7 +2356,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2339,49 +2366,148 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>143</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>25</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>26</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>144</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
         <v>41</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2263.9000000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>141</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>142</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>143</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>146</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>104</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>26</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>147</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>149</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>104</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>26</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>40</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2333.2199999999998</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>150</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>151</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>152</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2585,10 +2711,25 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -164,9 +176,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -293,9 +302,6 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>22.0000</t>
   </si>
   <si>
@@ -347,6 +353,9 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
     <t>SELENIUM-ACE 30 TABS</t>
   </si>
   <si>
@@ -461,7 +470,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 2:50 PM</t>
+    <t>Tuesday, 15 July, 2025 2:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1333,7 +1342,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1343,11 +1352,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1359,14 +1368,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1383,7 +1392,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1399,7 +1408,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1409,14 +1418,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1425,14 +1434,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1442,11 +1451,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1458,14 +1467,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1475,11 +1484,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1498,7 +1507,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1508,11 +1517,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1524,14 +1533,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1541,14 +1550,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1557,14 +1566,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1574,14 +1583,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1630,7 +1639,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1647,7 +1656,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1663,7 +1672,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1680,7 +1689,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1696,7 +1705,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1713,7 +1722,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1739,14 +1748,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1755,14 +1764,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1772,14 +1781,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1795,7 +1804,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1812,7 +1821,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1821,7 +1830,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1838,14 +1847,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1861,7 +1870,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1878,7 +1887,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1894,7 +1903,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1920,31 +1929,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1953,31 +1962,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1986,14 +1995,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2003,11 +2012,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2019,14 +2028,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2036,11 +2045,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,11 +2078,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2102,11 +2111,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2168,11 +2177,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2234,14 +2243,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2333,14 +2342,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2349,7 +2358,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2362,18 +2371,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2382,31 +2391,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2432,14 +2441,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2465,49 +2474,115 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2333.2199999999998</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>149</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>106</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>26</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>150</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>152</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>106</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>26</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>44</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2435.2199999999998</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>153</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>154</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>155</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2726,10 +2801,20 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -470,7 +470,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 2:51 PM</t>
+    <t>Tuesday, 15 July, 2025 2:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -356,6 +356,15 @@
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
+    <t>REVIVODERM CREAM</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>SELENIUM-ACE 30 TABS</t>
   </si>
   <si>
@@ -368,12 +377,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>TEGRETOL 200MG 30 TAB.</t>
   </si>
   <si>
@@ -470,7 +473,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 2:56 PM</t>
+    <t>Tuesday, 15 July, 2025 3:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2134,13 +2137,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2151,7 +2154,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2167,7 +2170,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2184,7 +2187,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2200,7 +2203,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2210,11 +2213,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2226,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2243,11 +2246,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2259,7 +2262,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2276,14 +2279,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2292,14 +2295,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2309,11 +2312,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2325,14 +2328,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2342,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,14 +2361,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2375,11 +2378,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2391,14 +2394,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2408,14 +2411,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2424,31 +2427,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2457,7 +2460,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2474,14 +2477,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2490,14 +2493,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2507,11 +2510,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2523,7 +2526,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2540,49 +2543,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
         <v>45</v>
       </c>
-      <c t="s" r="Q50" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2435.2199999999998</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>153</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>106</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>26</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>44</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2513.2199999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
         <v>154</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
         <v>155</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>156</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2811,10 +2847,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -473,7 +473,7 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 3:09 PM</t>
+    <t>Tuesday, 15 July, 2025 3:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -185,13 +197,16 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
@@ -287,7 +302,13 @@
     <t>480.0000</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
   </si>
   <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
@@ -473,7 +494,13 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 3:12 PM</t>
+    <t>ملك العود مسك</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 15 July, 2025 4:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1131,7 +1158,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1140,14 +1167,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1164,7 +1191,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1173,14 +1200,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1197,7 +1224,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1206,31 +1233,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1239,31 +1266,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1272,14 +1299,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1296,7 +1323,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1312,7 +1339,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1322,14 +1349,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1338,14 +1365,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1362,7 +1389,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1378,7 +1405,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1388,14 +1415,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1404,14 +1431,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1428,7 +1455,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1444,7 +1471,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1454,14 +1481,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1470,14 +1497,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1487,14 +1514,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1503,14 +1530,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1520,14 +1547,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1536,14 +1563,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1560,7 +1587,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1626,7 +1653,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1635,14 +1662,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1652,14 +1679,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1668,14 +1695,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1685,14 +1712,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1701,14 +1728,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1718,14 +1745,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1734,14 +1761,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1751,14 +1778,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1767,14 +1794,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1784,14 +1811,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1800,14 +1827,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1817,14 +1844,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1833,14 +1860,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1850,14 +1877,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1866,14 +1893,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1883,14 +1910,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1899,14 +1926,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1916,14 +1943,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1932,14 +1959,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1949,14 +1976,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1965,31 +1992,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2005,7 +2032,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2015,14 +2042,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2038,24 +2065,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2081,14 +2108,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2097,14 +2124,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2114,14 +2141,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,31 +2157,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,14 +2190,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2196,31 +2223,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2229,14 +2256,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2246,14 +2273,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2279,14 +2306,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,14 +2339,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2385,7 +2412,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2401,7 +2428,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2418,7 +2445,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2434,7 +2461,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2460,31 +2487,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2493,31 +2520,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2526,31 +2553,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2559,66 +2586,165 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2513.2199999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>154</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>155</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>156</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>157</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>113</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>30</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>158</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>160</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>113</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>30</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>48</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>161</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>65</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>30</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>92</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2637.2199999999998</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>163</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>164</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>165</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2852,10 +2978,25 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -500,7 +509,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 4:32 PM</t>
+    <t>Tuesday, 15 July, 2025 5:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1900,7 +1909,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1917,7 +1926,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1933,7 +1942,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1950,7 +1959,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1966,7 +1975,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1999,7 +2008,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2009,14 +2018,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2042,14 +2051,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2065,24 +2074,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2091,31 +2100,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2131,7 +2140,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2141,7 +2150,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2164,7 +2173,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2197,7 +2206,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2223,28 +2232,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2263,13 +2272,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2280,7 +2289,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2296,7 +2305,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2339,11 +2348,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2362,7 +2371,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2412,7 +2421,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2428,7 +2437,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2461,7 +2470,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2527,7 +2536,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2544,7 +2553,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2560,24 +2569,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>156</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2626,7 +2635,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2659,7 +2668,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2669,11 +2678,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2702,49 +2711,82 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2637.2199999999998</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>163</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>164</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>65</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>30</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>92</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2699.2199999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>166</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>167</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>168</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2993,10 +3035,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -329,12 +329,27 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
     <t>22.0000</t>
   </si>
   <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -365,6 +380,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>MUCOSOL 375MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -509,7 +533,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 5:05 PM</t>
+    <t>Tuesday, 15 July, 2025 5:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2065,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,11 +2075,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2067,14 +2091,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2084,14 +2108,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2107,24 +2131,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2150,14 +2174,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2166,31 +2190,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,11 +2240,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,14 +2273,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2265,31 +2289,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2298,14 +2322,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,11 +2339,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2331,14 +2355,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,11 +2372,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2364,28 +2388,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,14 +2438,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2430,14 +2454,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,14 +2471,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,14 +2487,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2480,14 +2504,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,11 +2537,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,14 +2570,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2562,14 +2586,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,11 +2603,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>24</v>
@@ -2595,31 +2619,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,7 +2652,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2641,15 +2665,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2661,31 +2685,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2727,14 +2751,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2744,49 +2768,148 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2699.2199999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>166</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>167</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>168</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>121</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>30</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>169</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>171</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>121</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>30</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>48</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>172</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>65</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>30</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>92</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2792.2199999999998</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>174</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>175</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>176</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3040,10 +3163,25 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -302,6 +302,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -389,6 +401,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -407,6 +428,24 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 30 SACHETS</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -422,9 +461,6 @@
     <t>SELENIUM-ACE 30 TABS</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
     <t>42.9000</t>
   </si>
   <si>
@@ -500,10 +536,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -533,7 +566,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 5:22 PM</t>
+    <t>Tuesday, 15 July, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1966,7 +1999,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1976,14 +2009,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1992,14 +2025,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2009,14 +2042,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2025,14 +2058,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2042,11 +2075,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2058,7 +2091,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2075,14 +2108,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2091,14 +2124,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2108,11 +2141,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2124,14 +2157,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2141,14 +2174,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2157,14 +2190,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2174,11 +2207,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2190,20 +2223,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2214,7 +2247,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2236,18 +2269,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2256,14 +2289,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2273,11 +2306,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2289,14 +2322,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2306,11 +2339,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2322,14 +2355,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2339,14 +2372,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2355,14 +2388,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2372,14 +2405,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2388,31 +2421,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2421,7 +2454,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2438,11 +2471,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2454,14 +2487,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2471,11 +2504,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2487,14 +2520,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2504,11 +2537,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2520,28 +2553,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2553,14 +2586,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2570,11 +2603,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
@@ -2586,14 +2619,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2603,14 +2636,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2626,7 +2659,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2636,11 +2669,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2652,14 +2685,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2669,11 +2702,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2685,7 +2718,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2702,11 +2735,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2718,31 +2751,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2751,20 +2784,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2791,13 +2824,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2824,24 +2857,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2850,14 +2883,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2867,49 +2900,181 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2792.2199999999998</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>174</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>175</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>176</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>29</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>30</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>177</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>179</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>125</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>30</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>180</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>182</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>125</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>30</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>48</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>183</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>65</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>30</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>92</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3590.9899999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>185</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>186</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>187</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3178,10 +3343,30 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -305,13 +305,10 @@
     <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
-    <t>130.0000</t>
+    <t>65.0000</t>
   </si>
   <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
@@ -536,7 +533,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -566,7 +566,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 5:27 PM</t>
+    <t>Tuesday, 15 July, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,7 +1999,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2009,14 +2009,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>65</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2075,11 +2075,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2141,11 +2141,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2240,11 +2240,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2256,14 +2256,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>70</v>
@@ -2289,14 +2289,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2306,11 +2306,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2339,11 +2339,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2372,11 +2372,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2405,11 +2405,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>24</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2438,11 +2438,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2471,11 +2471,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2504,11 +2504,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2603,11 +2603,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2636,11 +2636,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2669,11 +2669,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2735,11 +2735,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2768,11 +2768,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>24</v>
@@ -2784,14 +2784,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2834,11 +2834,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2867,11 +2867,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2900,11 +2900,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>175</v>
@@ -2956,7 +2956,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2989,7 +2989,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="63" ht="24.75" customHeight="1">
       <c r="P63" s="13">
-        <v>3590.9899999999998</v>
+        <v>3519.9899999999998</v>
       </c>
       <c r="Q63" s="13"/>
     </row>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
   </si>
   <si>
@@ -206,9 +218,6 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -443,6 +452,18 @@
     <t>360.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:18</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -464,6 +485,15 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
+    <t>SUPRAX 400MG 5 TAB</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>TEGRETOL 200MG 30 TAB.</t>
   </si>
   <si>
@@ -530,6 +560,9 @@
     <t>97.0200</t>
   </si>
   <si>
+    <t>جل هير كود 185 مل</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -566,7 +599,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 5:37 PM</t>
+    <t>Tuesday, 15 July, 2025 5:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1345,18 +1378,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1365,28 +1398,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1398,14 +1431,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1422,7 +1455,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1438,7 +1471,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1448,14 +1481,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1464,14 +1497,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1504,7 +1537,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1514,11 +1547,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1530,14 +1563,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1554,7 +1587,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1570,7 +1603,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1580,14 +1613,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1596,14 +1629,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1613,11 +1646,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1629,14 +1662,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1646,11 +1679,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1662,14 +1695,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1686,7 +1719,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1695,14 +1728,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1712,14 +1745,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1728,14 +1761,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1745,14 +1778,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1761,14 +1794,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1801,7 +1834,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1818,7 +1851,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1834,7 +1867,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1851,7 +1884,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1867,7 +1900,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1884,7 +1917,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1900,7 +1933,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1910,14 +1943,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1926,14 +1959,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1943,14 +1976,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1966,7 +1999,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1983,7 +2016,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1999,7 +2032,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2016,7 +2049,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2032,7 +2065,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2049,7 +2082,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2065,7 +2098,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2082,7 +2115,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2098,7 +2131,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2148,7 +2181,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2164,7 +2197,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2174,11 +2207,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2190,14 +2223,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2207,14 +2240,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2223,14 +2256,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2240,11 +2273,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2263,24 +2296,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2289,31 +2322,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2329,7 +2362,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2339,7 +2372,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2362,7 +2395,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2379,7 +2412,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2395,7 +2428,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2412,7 +2445,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2428,7 +2461,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2461,7 +2494,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2494,7 +2527,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2511,7 +2544,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2527,7 +2560,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2537,11 +2570,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2553,31 +2586,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2586,14 +2619,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2603,14 +2636,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2619,28 +2652,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2652,14 +2685,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2669,14 +2702,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2685,14 +2718,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2702,11 +2735,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2718,14 +2751,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2735,14 +2768,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2751,14 +2784,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2768,14 +2801,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2784,14 +2817,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2824,7 +2857,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2841,7 +2874,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2857,7 +2890,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2890,24 +2923,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2916,28 +2949,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2949,31 +2982,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2982,28 +3015,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3015,66 +3048,198 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3519.9899999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>185</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>186</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>187</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>33</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>34</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>188</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>127</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>34</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>191</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>127</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>34</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>52</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>194</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>29</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>34</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>95</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3776.3899999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>196</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>197</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>198</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3363,10 +3528,30 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DAKTARIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -356,6 +365,12 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -485,6 +500,12 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>SUPRAX 400MG 5 TAB</t>
   </si>
   <si>
@@ -503,6 +524,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
     <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
   </si>
   <si>
@@ -563,6 +593,9 @@
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -599,7 +632,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 5:44 PM</t>
+    <t>Tuesday, 15 July, 2025 5:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1768,7 +1801,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1778,14 +1811,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1794,14 +1827,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1811,14 +1844,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1827,14 +1860,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1867,7 +1900,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1884,7 +1917,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1900,7 +1933,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1917,7 +1950,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1933,7 +1966,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1950,7 +1983,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1966,7 +1999,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1976,14 +2009,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1992,14 +2025,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2009,14 +2042,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2032,7 +2065,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2049,7 +2082,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2065,7 +2098,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2082,7 +2115,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2098,7 +2131,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2115,7 +2148,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2131,7 +2164,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2148,7 +2181,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2164,7 +2197,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2214,7 +2247,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2230,7 +2263,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2240,11 +2273,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2256,14 +2289,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2273,14 +2306,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2289,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2306,14 +2339,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2329,24 +2362,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2355,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2372,14 +2405,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2388,31 +2421,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2421,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2438,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2454,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2471,11 +2504,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2487,14 +2520,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2504,14 +2537,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2520,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2537,11 +2570,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2553,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2570,14 +2603,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2586,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2603,11 +2636,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>24</v>
@@ -2619,14 +2652,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2636,11 +2669,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2659,24 +2692,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2685,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2702,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2725,21 +2758,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2751,14 +2784,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2768,14 +2801,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2784,14 +2817,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2801,11 +2834,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2817,7 +2850,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2834,11 +2867,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2850,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2867,14 +2900,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2883,14 +2916,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2900,14 +2933,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2916,14 +2949,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2933,11 +2966,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2949,14 +2982,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2966,11 +2999,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2982,7 +3015,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2999,11 +3032,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>24</v>
@@ -3015,31 +3048,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3048,31 +3081,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3094,7 +3127,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3121,13 +3154,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3138,7 +3171,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3154,7 +3187,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3187,7 +3220,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3197,49 +3230,214 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>195</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3776.3899999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>33</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>34</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>185</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>196</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c t="s" r="Q67" s="12">
         <v>197</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>198</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>33</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>34</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>199</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>201</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>132</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>34</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>202</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>204</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>132</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>34</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>52</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>205</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>29</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>34</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>98</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>4014.8899999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>207</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>208</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>209</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3548,10 +3746,35 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALBENDAZOLE 400MG 6 TABS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
@@ -107,15 +116,24 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ARTISOY 30 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -332,9 +350,6 @@
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
     <t>480.0000</t>
   </si>
   <si>
@@ -545,9 +560,6 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>23.0000</t>
   </si>
   <si>
@@ -632,7 +644,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 5:59 PM</t>
+    <t>Tuesday, 15 July, 2025 6:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,7 +1351,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1349,14 +1361,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1365,7 +1377,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1405,7 +1417,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1415,14 +1427,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1431,31 +1443,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1464,31 +1476,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1497,31 +1509,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1530,7 +1542,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1547,11 +1559,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1580,14 +1592,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1596,7 +1608,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1613,11 +1625,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1646,14 +1658,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1662,7 +1674,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1679,11 +1691,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1695,14 +1707,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1712,14 +1724,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1728,14 +1740,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1745,11 +1757,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1778,14 +1790,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1794,14 +1806,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1811,11 +1823,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1877,14 +1889,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1910,14 +1922,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1950,7 +1962,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1966,7 +1978,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1983,7 +1995,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1999,7 +2011,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2032,7 +2044,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2131,7 +2143,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2148,7 +2160,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2164,7 +2176,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2181,7 +2193,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2197,7 +2209,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2214,7 +2226,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2273,14 +2285,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2289,14 +2301,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2329,7 +2341,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2372,14 +2384,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2428,24 +2440,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2454,14 +2466,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2487,31 +2499,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,11 +2747,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2758,24 +2770,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2824,21 +2836,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2883,14 +2895,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2900,11 +2912,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2923,7 +2935,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2933,11 +2945,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2949,14 +2961,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,11 +2978,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2982,14 +2994,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2999,11 +3011,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3015,7 +3027,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3032,14 +3044,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,14 +3060,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3098,14 +3110,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,14 +3143,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3164,14 +3176,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3180,28 +3192,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3220,24 +3232,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3246,31 +3258,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3286,21 +3298,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3312,31 +3324,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3345,28 +3357,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3385,59 +3397,125 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>4014.8899999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>207</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>208</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>137</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>36</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>58</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>209</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>32</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>36</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>104</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4140.0900000000001</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>211</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>212</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>213</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3771,10 +3849,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -644,7 +644,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:06 PM</t>
+    <t>Tuesday, 15 July, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -353,6 +362,15 @@
     <t>480.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -566,10 +584,13 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>32.6400</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -611,10 +632,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -638,13 +656,19 @@
     <t>فازلين بيور كبير</t>
   </si>
   <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
     <t>ملك العود مسك</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:10 PM</t>
+    <t>Tuesday, 15 July, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2077,7 +2101,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2087,14 +2111,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2110,7 +2134,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2120,14 +2144,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2136,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2153,14 +2177,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2176,7 +2200,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2193,7 +2217,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2209,7 +2233,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2226,7 +2250,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2242,7 +2266,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2252,14 +2276,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2268,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2285,14 +2309,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2325,7 +2349,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2341,7 +2365,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2358,7 +2382,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2374,7 +2398,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2388,10 +2412,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2400,14 +2424,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2417,11 +2441,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>27</v>
@@ -2433,14 +2457,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2450,14 +2474,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2466,14 +2490,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2483,14 +2507,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2499,20 +2523,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2520,10 +2544,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2532,14 +2556,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2549,14 +2573,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2565,20 +2589,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2589,7 +2613,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2605,7 +2629,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,14 +2639,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2638,7 +2662,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2671,7 +2695,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2688,7 +2712,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2704,7 +2728,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2737,7 +2761,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2754,7 +2778,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2770,7 +2794,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,11 +2804,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,11 +2837,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2829,31 +2853,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,14 +2886,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,28 +2919,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2928,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,14 +2969,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2978,11 +3002,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2994,14 +3018,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,7 +3035,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3034,7 +3058,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3067,7 +3091,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,14 +3134,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3143,14 +3167,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,14 +3183,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3176,14 +3200,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3192,14 +3216,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3216,7 +3240,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3232,7 +3256,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3242,14 +3266,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3258,28 +3282,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3291,31 +3315,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3324,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3341,14 +3365,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3357,7 +3381,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3374,11 +3398,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3390,14 +3414,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3407,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>207</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3430,7 +3454,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3440,11 +3464,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3456,14 +3480,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3473,49 +3497,148 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4140.0900000000001</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>211</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>212</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>213</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>214</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>143</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>36</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>58</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>215</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>216</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>36</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>14</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>32</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>36</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>107</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4227.25</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>219</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>220</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>221</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3859,10 +3982,25 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -668,7 +668,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:14 PM</t>
+    <t>Tuesday, 15 July, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -581,6 +581,24 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -596,13 +614,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8548:0</t>
+    <t>8547:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
@@ -626,6 +644,15 @@
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
@@ -638,21 +665,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -668,7 +683,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:15 PM</t>
+    <t>Tuesday, 15 July, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3223,7 +3238,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3233,14 +3248,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,14 +3264,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3266,11 +3281,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3282,14 +3297,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3299,14 +3314,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,14 +3330,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3339,7 +3354,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3355,21 +3370,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3381,31 +3396,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,14 +3429,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3431,14 +3446,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,7 +3462,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3464,11 +3479,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3480,14 +3495,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,11 +3512,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3513,14 +3528,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,14 +3545,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,14 +3561,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3563,11 +3578,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3579,14 +3594,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3596,49 +3611,148 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4227.25</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>219</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>143</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>36</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>58</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>220</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
         <v>221</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>36</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>14</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>222</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>32</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>36</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>107</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4288.25</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>224</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>225</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>226</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3997,10 +4111,25 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -245,6 +245,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -362,6 +374,15 @@
     <t>480.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
@@ -440,9 +461,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -614,15 +632,12 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8547:0</t>
+    <t>8545:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
@@ -683,7 +698,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:17 PM</t>
+    <t>Tuesday, 15 July, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1968,7 +1983,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1977,14 +1992,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1994,14 +2009,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2017,7 +2032,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2027,11 +2042,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>27</v>
@@ -2043,14 +2058,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2060,14 +2075,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2076,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2093,14 +2108,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2109,14 +2124,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2126,11 +2141,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>27</v>
@@ -2142,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2159,14 +2174,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2175,14 +2190,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2192,14 +2207,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2215,7 +2230,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2225,14 +2240,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2241,14 +2256,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2258,14 +2273,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2274,14 +2289,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2291,14 +2306,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2307,14 +2322,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2324,14 +2339,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2340,7 +2355,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2373,14 +2388,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2390,11 +2405,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2406,7 +2421,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2423,14 +2438,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2489,14 +2504,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2505,14 +2520,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2522,11 +2537,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2555,14 +2570,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2571,14 +2586,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2588,14 +2603,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2604,31 +2619,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2644,7 +2659,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2654,14 +2669,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2677,24 +2692,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2703,14 +2718,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2720,14 +2735,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2743,7 +2758,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2776,7 +2791,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2793,7 +2808,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2809,7 +2824,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2842,7 +2857,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2859,7 +2874,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2875,7 +2890,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2885,11 +2900,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2918,11 +2933,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2934,31 +2949,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2984,14 +2999,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3000,28 +3015,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3050,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3083,11 +3098,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3116,7 +3131,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3139,7 +3154,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3172,7 +3187,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,7 +3246,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3248,11 +3263,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3304,7 +3319,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3314,14 +3329,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3417,10 +3432,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3429,28 +3444,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3462,31 +3477,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3512,11 +3527,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3528,7 +3543,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3545,14 +3560,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,7 +3576,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3578,11 +3593,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3611,14 +3626,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3644,11 +3659,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3660,14 +3675,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3677,11 +3692,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3693,14 +3708,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3710,49 +3725,115 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4288.25</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>224</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>225</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
         <v>226</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>36</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>14</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>227</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>32</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>36</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>111</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4397.25</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>229</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>230</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>231</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4126,10 +4207,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -698,7 +698,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:22 PM</t>
+    <t>Tuesday, 15 July, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -350,6 +350,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
   </si>
   <si>
@@ -440,12 +449,6 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>LUNGOCORT 0.25MG\2ML AMP</t>
   </si>
   <si>
@@ -617,6 +620,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -698,7 +707,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:23 PM</t>
+    <t>Tuesday, 15 July, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2329,7 +2338,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2346,7 +2355,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2362,7 +2371,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2388,7 +2397,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2445,7 +2454,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2461,7 +2470,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2478,7 +2487,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2494,7 +2503,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2544,7 +2553,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2560,7 +2569,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2574,10 +2583,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2586,14 +2595,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,14 +2628,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2636,14 +2645,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,11 +2678,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2692,24 +2701,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,31 +2727,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,11 +2777,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>27</v>
@@ -2784,7 +2793,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,11 +2876,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>27</v>
@@ -2883,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,11 +2909,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,14 +2942,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3022,21 +3031,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3048,31 +3057,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3121,7 +3130,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,11 +3140,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,11 +3173,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,11 +3239,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3246,7 +3255,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3263,11 +3272,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3279,14 +3288,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3362,11 +3371,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,28 +3519,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3543,31 +3552,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3593,11 +3602,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3609,7 +3618,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3659,11 +3668,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3682,7 +3691,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3725,11 +3734,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3781,7 +3790,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3791,49 +3800,115 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>228</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4397.25</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
         <v>229</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>36</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>14</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>230</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>32</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>36</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>111</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>231</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4504.25</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>232</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>233</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>234</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4217,10 +4292,20 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -707,7 +707,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:38 PM</t>
+    <t>Tuesday, 15 July, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -314,306 +314,312 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LUNGOCORT 0.25MG\2ML AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MUCOSOL 375MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 30 SACHETS</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:18</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>REVIVODERM CREAM</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>SELENIUM-ACE 30 TABS</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>SUPRAX 400MG 5 TAB</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LEVANIC 750 MG 5 TAB</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LUNGOCORT 0.25MG\2ML AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MUCOSOL 375MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>16.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PRAVOTIN 100MG 30 SACHETS</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:18</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>REVIVODERM CREAM</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>SELENIUM-ACE 30 TABS</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>SUPRAX 400MG 5 TAB</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>TEGRETOL 200MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>TERBIN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG 6 TAB</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -707,7 +713,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:44 PM</t>
+    <t>Tuesday, 15 July, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2190,7 +2196,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2206,7 +2212,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2239,7 +2245,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2249,14 +2255,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2282,14 +2288,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2305,7 +2311,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2322,7 +2328,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2371,7 +2377,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2388,7 +2394,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2404,7 +2410,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2414,14 +2420,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2430,7 +2436,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2447,14 +2453,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2487,7 +2493,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2503,7 +2509,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2520,7 +2526,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2536,7 +2542,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2595,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2612,14 +2618,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2694,14 +2700,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2711,11 +2717,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2734,24 +2740,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2760,31 +2766,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2793,14 +2799,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2810,11 +2816,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -2826,7 +2832,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2876,14 +2882,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2909,11 +2915,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2942,11 +2948,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,14 +2981,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +2997,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,14 +3014,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,14 +3047,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3064,21 +3070,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3090,31 +3096,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,14 +3146,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3163,7 +3169,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3173,11 +3179,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3206,11 +3212,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3239,11 +3245,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3272,11 +3278,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3305,11 +3311,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3371,14 +3377,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3404,11 +3410,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3437,7 +3443,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3460,7 +3466,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3470,14 +3476,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3503,14 +3509,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>88</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3540,10 +3546,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3569,14 +3575,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3585,31 +3591,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3635,11 +3641,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3651,7 +3657,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3668,11 +3674,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3684,7 +3690,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3767,11 +3773,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3783,7 +3789,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3800,11 +3806,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3833,11 +3839,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3856,7 +3862,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3866,49 +3872,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4504.25</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>232</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>32</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>36</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>114</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>233</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4604.25</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
         <v>234</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>235</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>236</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4302,10 +4341,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -548,6 +548,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>SCALOGEN HAIR SERUM 120 ML</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
     <t>SELENIUM-ACE 30 TABS</t>
   </si>
   <si>
@@ -713,7 +722,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:45 PM</t>
+    <t>Tuesday, 15 July, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3136,7 +3145,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3179,14 +3188,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3212,11 +3221,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3245,7 +3254,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3268,7 +3277,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3301,7 +3310,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3334,7 +3343,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3367,7 +3376,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3433,7 +3442,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3476,11 +3485,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>88</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3565,7 +3574,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3598,7 +3607,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3615,7 +3624,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3631,24 +3640,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3707,11 +3716,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3723,7 +3732,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3740,14 +3749,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3756,7 +3765,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3773,14 +3782,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3806,11 +3815,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3822,7 +3831,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3839,11 +3848,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3872,11 +3881,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3905,49 +3914,82 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4604.25</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>234</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>235</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>32</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>36</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>114</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>236</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4789.25</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>237</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>238</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>239</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4346,10 +4388,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -704,6 +704,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سلاكه ازن خشب صغيره</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -722,7 +731,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:46 PM</t>
+    <t>Tuesday, 15 July, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3838,7 +3847,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3848,11 +3857,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3864,7 +3873,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3881,11 +3890,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3914,11 +3923,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3947,49 +3956,82 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4789.25</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>237</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>238</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>32</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>36</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>114</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>239</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4801.25</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>240</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>241</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>242</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4393,10 +4435,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -731,7 +731,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:48 PM</t>
+    <t>Tuesday, 15 July, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
   </si>
   <si>
-    <t>29:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>1</t>
@@ -56,682 +56,691 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ALBENDAZOLE 400MG 6 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ARTISOY 30 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DAKTARIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DIAX 200MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LUNGOCORT 0.25MG\2ML AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MUCOSOL 375MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 30 SACHETS</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:18</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>REVIVODERM CREAM</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>SCALOGEN HAIR SERUM 120 ML</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>SELENIUM-ACE 30 TABS</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>SUPRAX 400MG 5 TAB</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>32.6400</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8545:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.5000</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>جل هير كود 185 مل</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب صغيره</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ALBENDAZOLE 400MG 6 TABS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>ALKAPRESS 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>AMARYL 3 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMARYL 4 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ARTISOY 30 TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BIONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CARBAMIDE 10% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DAKTARIN 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DIAX 200MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LEVANIC 750 MG 5 TAB</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LUNGOCORT 0.25MG\2ML AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MUCOSOL 375MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>16.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PRAVOTIN 100MG 30 SACHETS</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:18</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>REVIVODERM CREAM</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>SCALOGEN HAIR SERUM 120 ML</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>SELENIUM-ACE 30 TABS</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>SUPRAX 400MG 5 TAB</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>TEGRETOL 200MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>TERBIN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG 6 TAB</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 50 GM</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>32.6400</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8545:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>29.5000</t>
-  </si>
-  <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t>جل هير كود 185 مل</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>ريكسونا حريمي بليه</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب صغيره</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>32:0</t>
-  </si>
-  <si>
     <t>ملك العود مسك</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:54 PM</t>
+    <t>Tuesday, 15 July, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,7 +1414,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1415,14 +1424,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1431,14 +1440,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1448,14 +1457,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1481,14 +1490,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1497,14 +1506,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1514,14 +1523,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1554,7 +1563,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1570,7 +1579,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1587,7 +1596,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1620,7 +1629,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1636,7 +1645,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1653,7 +1662,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1686,7 +1695,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1702,7 +1711,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1719,7 +1728,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1752,7 +1761,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1768,7 +1777,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1785,7 +1794,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1818,7 +1827,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1851,7 +1860,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1884,7 +1893,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1917,7 +1926,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1950,7 +1959,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1966,7 +1975,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1983,7 +1992,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2016,7 +2025,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2082,7 +2091,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2098,7 +2107,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2115,7 +2124,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2148,7 +2157,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2164,7 +2173,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2181,7 +2190,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2214,7 +2223,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2230,7 +2239,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2247,7 +2256,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2263,7 +2272,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2280,7 +2289,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2306,7 +2315,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2346,7 +2355,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2379,7 +2388,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,7 +2421,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2428,7 +2437,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2445,7 +2454,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2461,7 +2470,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2504,7 +2513,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2527,7 +2536,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2544,7 +2553,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2560,7 +2569,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2577,7 +2586,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2593,7 +2602,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2619,14 +2628,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2636,14 +2645,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2673,10 +2682,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2784,31 +2793,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,31 +2826,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2907,7 +2916,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2923,7 +2932,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2940,7 +2949,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2956,7 +2965,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2973,7 +2982,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2989,7 +2998,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3006,7 +3015,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3022,7 +3031,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3039,7 +3048,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3055,7 +3064,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3114,7 +3123,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3127,18 +3136,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3154,13 +3163,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3171,7 +3180,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3187,7 +3196,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,14 +3239,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3279,14 +3288,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3319,7 +3328,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3336,7 +3345,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3352,7 +3361,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3369,7 +3378,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3402,7 +3411,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3418,7 +3427,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3484,7 +3493,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3550,7 +3559,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>211</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>88</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3630,10 +3639,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3675,31 +3684,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3741,7 +3750,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,7 +3783,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3791,14 +3800,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3840,7 +3849,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3906,7 +3915,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3979,7 +3988,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3989,49 +3998,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>241</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4801.25</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>240</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>241</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>36</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>114</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>242</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q87" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4940.25</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>243</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>244</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>245</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4440,10 +4482,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -740,7 +740,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:55 PM</t>
+    <t>Tuesday, 15 July, 2025 6:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -308,7 +308,7 @@
     <t>106.00</t>
   </si>
   <si>
-    <t>53.0000</t>
+    <t>106.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -698,6 +698,12 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
@@ -734,13 +740,22 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>مرهم اكتيول اسود</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>ملك العود مسك</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 6:59 PM</t>
+    <t>Tuesday, 15 July, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2173,7 +2188,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2190,7 +2205,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -3790,7 +3805,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3800,11 +3815,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3816,7 +3831,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3833,14 +3848,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>231</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3866,14 +3881,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3882,7 +3897,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3899,11 +3914,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3932,11 +3947,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3948,7 +3963,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3965,11 +3980,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -3981,14 +3996,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3998,11 +4013,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4014,14 +4029,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4031,7 +4046,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4042,38 +4057,104 @@
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4940.25</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>243</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
         <v>244</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>36</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>245</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>246</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>16</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>36</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>114</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5011.25</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>248</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>249</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>250</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4487,10 +4568,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -641,6 +641,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VINOMAX CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 50 GM</t>
   </si>
   <si>
@@ -755,7 +764,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 7:07 PM</t>
+    <t>Tuesday, 15 July, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3574,7 +3583,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,11 +3593,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>88</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3673,7 +3682,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3706,7 +3715,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3723,7 +3732,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3739,24 +3748,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,11 +3791,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3805,7 +3814,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3819,7 +3828,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,11 +3857,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3864,7 +3873,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>233</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,7 +3906,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3914,14 +3923,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3930,7 +3939,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3947,11 +3956,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3970,7 +3979,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,11 +3989,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -3996,7 +4005,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4013,11 +4022,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4029,14 +4038,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4046,11 +4055,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4079,11 +4088,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4102,7 +4111,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4112,49 +4121,82 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5011.25</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>248</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>249</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>16</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>36</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>114</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>250</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5106.25</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>251</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>252</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>253</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4578,10 +4620,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -161,6 +161,9 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BILASTIGEC 20 MG 20 TABS.</t>
+  </si>
+  <si>
     <t>BIONAL 30 CAP</t>
   </si>
   <si>
@@ -764,7 +767,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 7:10 PM</t>
+    <t>Tuesday, 15 July, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1735,7 +1738,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1745,11 +1748,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1761,14 +1764,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1778,11 +1781,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1794,14 +1797,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1811,11 +1814,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1827,14 +1830,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1844,14 +1847,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1860,14 +1863,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1877,14 +1880,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1893,14 +1896,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1910,11 +1913,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1933,7 +1936,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1943,11 +1946,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1959,14 +1962,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1976,14 +1979,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1992,14 +1995,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2009,14 +2012,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2025,14 +2028,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2042,11 +2045,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -2058,14 +2061,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2075,14 +2078,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2091,14 +2094,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2108,14 +2111,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2124,14 +2127,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2141,11 +2144,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -2157,14 +2160,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2174,14 +2177,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2190,14 +2193,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2207,11 +2210,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2223,14 +2226,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2240,14 +2243,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2256,14 +2259,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2273,14 +2276,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2289,14 +2292,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2306,11 +2309,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2322,14 +2325,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2339,14 +2342,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2355,14 +2358,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2372,14 +2375,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2388,14 +2391,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2405,14 +2408,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2421,7 +2424,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2438,11 +2441,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2454,14 +2457,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2471,11 +2474,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2487,14 +2490,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2504,14 +2507,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2520,14 +2523,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2537,14 +2540,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2553,7 +2556,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2570,14 +2573,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2586,7 +2589,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2603,14 +2606,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2619,14 +2622,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2636,14 +2639,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2652,14 +2655,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2669,11 +2672,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2702,14 +2705,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2718,14 +2721,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2735,14 +2738,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2751,14 +2754,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2768,14 +2771,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2784,14 +2787,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2801,14 +2804,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2817,14 +2820,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2834,11 +2837,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2857,24 +2860,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2883,31 +2886,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2916,14 +2919,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2933,11 +2936,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -2949,7 +2952,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2966,14 +2969,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2982,14 +2985,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2999,14 +3002,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3015,14 +3018,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3032,11 +3035,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>28</v>
@@ -3048,14 +3051,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3065,11 +3068,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -3081,14 +3084,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3098,14 +3101,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3114,14 +3117,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3131,14 +3134,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3147,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3164,14 +3167,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3187,21 +3190,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3213,28 +3216,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3246,14 +3249,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3263,14 +3266,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3279,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3296,14 +3299,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3319,7 +3322,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3329,11 +3332,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3345,14 +3348,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3362,11 +3365,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3378,14 +3381,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3395,11 +3398,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3411,14 +3414,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3428,11 +3431,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3444,14 +3447,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3461,11 +3464,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3477,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3494,14 +3497,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3510,14 +3513,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3527,14 +3530,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3543,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3560,11 +3563,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3576,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3593,11 +3596,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3609,14 +3612,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3626,11 +3629,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3642,14 +3645,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3659,14 +3662,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>216</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3675,14 +3678,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3692,14 +3695,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>88</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3708,14 +3711,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3725,14 +3728,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3758,14 +3761,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3774,31 +3777,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3814,7 +3817,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3824,11 +3827,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3840,14 +3843,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3857,11 +3860,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3873,14 +3876,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3890,11 +3893,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3923,14 +3926,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>236</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3939,7 +3942,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3956,14 +3959,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3989,11 +3992,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4005,14 +4008,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4022,11 +4025,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4045,7 +4048,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4055,11 +4058,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4078,7 +4081,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4088,11 +4091,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4104,14 +4107,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4121,11 +4124,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4137,14 +4140,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4154,49 +4157,82 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>250</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5106.25</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>16</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>36</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>115</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>251</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c t="s" r="Q91" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5152.25</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
         <v>252</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
         <v>253</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>254</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4625,10 +4661,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>CHROMAX 60 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>-88.5000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -455,6 +467,9 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>L-CARNITINE 350MG 20 CAPS.</t>
+  </si>
+  <si>
     <t>LEVANIC 750 MG 5 TAB</t>
   </si>
   <si>
@@ -464,6 +479,12 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>LUNGOCORT 0.25MG\2ML AMP</t>
   </si>
   <si>
@@ -509,6 +530,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>ORLISTAT 120MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>68.3100</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -746,10 +776,7 @@
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
-    <t>32:0</t>
-  </si>
-  <si>
-    <t>15.0000</t>
+    <t>31:0</t>
   </si>
   <si>
     <t>مرهم اكتيول اسود</t>
@@ -767,7 +794,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 7:12 PM</t>
+    <t>Tuesday, 15 July, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1936,7 +1963,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1946,14 +1973,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1962,14 +1989,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1979,11 +2006,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1995,14 +2022,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2019,7 +2046,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2035,7 +2062,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2045,14 +2072,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2061,14 +2088,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2118,7 +2145,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2127,14 +2154,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2144,14 +2171,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2167,7 +2194,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2177,11 +2204,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -2193,14 +2220,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2210,14 +2237,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2226,14 +2253,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2243,11 +2270,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2259,14 +2286,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2276,14 +2303,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2292,14 +2319,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2309,14 +2336,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2325,14 +2352,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2342,11 +2369,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2375,14 +2402,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2398,7 +2425,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2408,14 +2435,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2424,14 +2451,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2441,14 +2468,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2457,7 +2484,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2474,11 +2501,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2507,11 +2534,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2523,14 +2550,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2540,14 +2567,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2556,14 +2583,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2573,14 +2600,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2589,7 +2616,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2606,14 +2633,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2622,7 +2649,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2639,14 +2666,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2655,14 +2682,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,14 +2699,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2688,14 +2715,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,11 +2732,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2721,7 +2748,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2738,14 +2765,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2754,14 +2781,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2771,14 +2798,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2787,14 +2814,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2804,14 +2831,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2820,14 +2847,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2837,14 +2864,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2853,14 +2880,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2870,11 +2897,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2886,31 +2913,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2926,7 +2953,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2936,14 +2963,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2952,14 +2979,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2969,14 +2996,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2985,31 +3012,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3018,14 +3045,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3035,11 +3062,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>28</v>
@@ -3051,14 +3078,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3068,11 +3095,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -3084,14 +3111,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3101,14 +3128,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,14 +3144,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3134,14 +3161,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3150,14 +3177,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3167,11 +3194,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3183,14 +3210,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3200,14 +3227,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3216,31 +3243,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3249,7 +3276,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3266,11 +3293,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3282,14 +3309,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3299,11 +3326,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3315,14 +3342,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,11 +3359,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3348,7 +3375,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3361,15 +3388,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3381,7 +3408,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3398,11 +3425,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3414,14 +3441,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,14 +3458,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3447,14 +3474,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,11 +3491,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3480,14 +3507,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,11 +3524,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3513,14 +3540,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,14 +3557,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3546,14 +3573,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,11 +3590,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3586,7 +3613,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3596,11 +3623,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3612,14 +3639,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,11 +3656,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3645,14 +3672,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,14 +3689,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3678,14 +3705,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3695,14 +3722,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>217</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3711,14 +3738,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3728,14 +3755,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,7 +3771,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3761,11 +3788,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3777,14 +3804,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3794,14 +3821,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,31 +3837,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3850,24 +3877,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3883,13 +3910,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3897,7 +3924,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3909,31 +3936,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3942,14 +3969,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,14 +3986,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>237</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3975,7 +4002,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3992,11 +4019,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4008,14 +4035,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4025,11 +4052,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4041,14 +4068,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4058,11 +4085,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4074,14 +4101,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4091,14 +4118,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4107,14 +4134,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4124,11 +4151,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4140,14 +4167,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4157,11 +4184,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4173,14 +4200,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4190,49 +4217,181 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5152.25</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>252</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>253</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>84</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>36</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>59</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>254</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>255</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>36</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>14</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>256</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>257</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>36</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>258</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>259</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>16</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>36</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>119</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5247.0600000000004</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>261</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>262</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>263</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4666,10 +4825,30 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -164,6 +164,9 @@
     <t>BILASTIGEC 20 MG 20 TABS.</t>
   </si>
   <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>BIONAL 30 CAP</t>
   </si>
   <si>
@@ -653,9 +656,6 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 7:18 PM</t>
+    <t>Tuesday, 15 July, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,7 +1765,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1779,10 +1779,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1808,11 +1808,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1824,14 +1824,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1841,11 +1841,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1890,14 +1890,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1907,11 +1907,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>28</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1956,14 +1956,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1973,14 +1973,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2022,14 +2022,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2039,11 +2039,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -2055,14 +2055,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2072,11 +2072,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2105,11 +2105,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2121,14 +2121,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2138,11 +2138,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2154,14 +2154,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2171,14 +2171,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2187,14 +2187,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2204,11 +2204,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -2253,14 +2253,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2270,11 +2270,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2303,11 +2303,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2319,14 +2319,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2402,11 +2402,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2418,14 +2418,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2439,10 +2439,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2451,14 +2451,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2468,11 +2468,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2501,11 +2501,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2534,11 +2534,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2567,11 +2567,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2583,14 +2583,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2600,14 +2600,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2666,11 +2666,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2699,11 +2699,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>28</v>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2732,11 +2732,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2765,11 +2765,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2798,11 +2798,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>
@@ -2814,14 +2814,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2864,11 +2864,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>28</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2897,11 +2897,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2930,11 +2930,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2963,11 +2963,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3012,14 +3012,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,14 +3029,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3045,14 +3045,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3062,11 +3062,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>28</v>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3095,11 +3095,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3128,11 +3128,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3144,14 +3144,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3161,11 +3161,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3194,11 +3194,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3227,11 +3227,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3260,11 +3260,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3293,11 +3293,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3309,14 +3309,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,11 +3326,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3392,11 +3392,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3425,11 +3425,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3458,11 +3458,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3474,14 +3474,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3491,11 +3491,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3524,11 +3524,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3557,11 +3557,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3590,11 +3590,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3623,11 +3623,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3656,11 +3656,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3672,14 +3672,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3891,10 +3891,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3976,7 +3976,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3986,11 +3986,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4042,7 +4042,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4085,11 +4085,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>247</v>
@@ -4207,7 +4207,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4240,7 +4240,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4250,11 +4250,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4361,7 +4361,7 @@
     </row>
     <row r="96" ht="25.5" customHeight="1">
       <c r="P96" s="13">
-        <v>5247.0600000000004</v>
+        <v>5224.0600000000004</v>
       </c>
       <c r="Q96" s="13"/>
     </row>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -794,7 +794,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 7:19 PM</t>
+    <t>Tuesday, 15 July, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -606,6 +606,12 @@
   </si>
   <si>
     <t>42.9000</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.0000</t>
   </si>
   <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
@@ -3481,7 +3487,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3491,11 +3497,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3507,14 +3513,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,11 +3530,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3547,7 +3553,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3557,11 +3563,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,11 +3596,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,11 +3629,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3639,14 +3645,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3656,11 +3662,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3689,14 +3695,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3745,7 +3751,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3755,11 +3761,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3788,11 +3794,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3821,7 +3827,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3844,7 +3850,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3854,14 +3860,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>227</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>94</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3924,10 +3930,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3953,14 +3959,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3969,31 +3975,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4052,11 +4058,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4075,7 +4081,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4085,11 +4091,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4101,7 +4107,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4118,14 +4124,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>247</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4151,14 +4157,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4167,7 +4173,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4184,11 +4190,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4200,14 +4206,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4217,11 +4223,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4233,7 +4239,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4250,11 +4256,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4283,14 +4289,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4316,14 +4322,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4332,14 +4338,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4349,49 +4355,82 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5224.0600000000004</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>261</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>16</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>36</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>120</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>262</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5262.0600000000004</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
         <v>263</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>264</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>265</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4845,10 +4884,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -800,7 +800,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 7:24 PM</t>
+    <t>Tuesday, 15 July, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -614,6 +614,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -785,6 +791,15 @@
     <t>31:0</t>
   </si>
   <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>مرهم اكتيول اسود</t>
   </si>
   <si>
@@ -800,7 +815,13 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 7:54 PM</t>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 15 July, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3520,7 +3541,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,11 +3551,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3546,14 +3567,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,11 +3584,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3586,7 +3607,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3596,11 +3617,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3612,14 +3633,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,11 +3650,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3645,14 +3666,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,11 +3683,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3678,14 +3699,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,11 +3716,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3711,14 +3732,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,14 +3749,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3744,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,14 +3782,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3784,7 +3805,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3794,11 +3815,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3810,14 +3831,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3827,11 +3848,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3843,14 +3864,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3860,7 +3881,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3883,7 +3904,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3893,14 +3914,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,14 +3930,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3926,14 +3947,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>94</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3942,14 +3963,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3963,10 +3984,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3975,14 +3996,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3992,14 +4013,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,31 +4029,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,14 +4062,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,11 +4079,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4074,14 +4095,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4091,11 +4112,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4114,7 +4135,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4124,11 +4145,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4140,14 +4161,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4157,14 +4178,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4190,14 +4211,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4206,7 +4227,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4223,11 +4244,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4239,14 +4260,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4256,11 +4277,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4272,7 +4293,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4289,11 +4310,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4305,14 +4326,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4322,14 +4343,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4355,14 +4376,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4388,7 +4409,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4399,38 +4420,137 @@
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5262.0600000000004</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>263</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>264</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>36</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>265</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>266</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>16</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>36</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>120</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>268</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>269</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>36</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>220</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5382.0600000000004</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>270</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>271</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>272</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4889,10 +5009,25 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -821,7 +821,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 7:59 PM</t>
+    <t>Tuesday, 15 July, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -701,12 +710,21 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -764,7 +782,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -818,10 +836,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 15 July, 2025 8:05 PM</t>
+    <t>Tuesday, 15 July, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2386,7 +2401,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2419,7 +2434,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2452,7 +2467,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2462,14 +2477,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2478,14 +2493,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2495,14 +2510,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2518,7 +2533,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2535,7 +2550,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2584,7 +2599,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2617,7 +2632,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2634,7 +2649,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2650,7 +2665,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2660,14 +2675,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2676,7 +2691,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2693,14 +2708,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2733,7 +2748,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2749,7 +2764,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2766,7 +2781,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2782,7 +2797,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,11 +2807,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2808,7 +2823,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2825,14 +2840,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2848,7 +2863,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2862,10 +2877,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2907,7 +2922,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2924,14 +2939,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2940,14 +2955,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,11 +2972,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2973,14 +2988,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,11 +3005,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -3006,14 +3021,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,11 +3038,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3039,31 +3054,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,31 +3087,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3105,14 +3120,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,7 +3137,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3162,7 +3177,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3178,7 +3193,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3195,7 +3210,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3211,7 +3226,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3277,7 +3292,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3310,7 +3325,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3327,7 +3342,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3343,7 +3358,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3353,14 +3368,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,14 +3384,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,14 +3401,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3402,28 +3417,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3442,13 +3457,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3475,7 +3490,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,14 +3500,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3533,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,11 +3566,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,11 +3599,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,11 +3632,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,7 +3665,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3673,7 +3688,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3706,7 +3721,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3739,7 +3754,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3772,7 +3787,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3852,7 +3867,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3904,7 +3919,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3914,11 +3929,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3930,14 +3945,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>231</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,14 +3978,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3980,14 +3995,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>94</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4003,7 +4018,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4020,7 +4035,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4036,7 +4051,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4046,14 +4061,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4069,21 +4084,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4095,31 +4110,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4145,11 +4160,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4178,14 +4193,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4194,14 +4209,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,14 +4226,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>251</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,14 +4242,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,14 +4259,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4260,7 +4275,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4277,14 +4292,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,14 +4308,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4310,11 +4325,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4326,14 +4341,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4343,11 +4358,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4376,14 +4391,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4392,14 +4407,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4409,11 +4424,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4442,14 +4457,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4465,7 +4480,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4475,11 +4490,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4491,14 +4506,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4508,49 +4523,115 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>272</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>16</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>36</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>123</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>274</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>257</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>36</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>223</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q99" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5382.0600000000004</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>270</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>271</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>272</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5520.7200000000003</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>275</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>276</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>277</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5024,10 +5105,20 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:17 PM</t>
+    <t>Tuesday, 15 July, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:21 PM</t>
+    <t>Tuesday, 15 July, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -302,6 +302,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -506,9 +515,6 @@
     <t>180.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -560,6 +566,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -626,9 +641,6 @@
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -782,58 +794,58 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب صغيره</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>مرهم اكتيول اسود</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>ملك العود مسك</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
     <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب صغيره</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>مخمريه العود الملكي</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>مرهم اكتيول اسود</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>ملك العود مسك</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>مناديل مبلله كبيره</t>
   </si>
   <si>
     <t>Tuesday, 15 July, 2025 8:26 PM</t>
@@ -2286,7 +2298,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2302,7 +2314,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2319,7 +2331,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2335,7 +2347,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2368,7 +2380,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2401,7 +2413,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2411,14 +2423,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2434,7 +2446,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2467,7 +2479,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2500,7 +2512,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2566,7 +2578,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2583,7 +2595,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2632,7 +2644,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2665,7 +2677,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2682,7 +2694,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2698,7 +2710,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2708,14 +2720,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2724,7 +2736,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2741,14 +2753,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2781,7 +2793,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2797,7 +2809,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2814,7 +2826,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2830,7 +2842,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2840,11 +2852,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2856,7 +2868,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2896,7 +2908,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2910,10 +2922,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2922,14 +2934,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2939,14 +2951,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2955,7 +2967,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2988,14 +3000,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3005,11 +3017,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -3021,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3038,11 +3050,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3071,11 +3083,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3087,31 +3099,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3120,31 +3132,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3160,7 +3172,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3170,11 +3182,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3186,7 +3198,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3203,14 +3215,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3219,14 +3231,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,14 +3248,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3269,11 +3281,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3285,7 +3297,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3302,11 +3314,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3335,11 +3347,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,11 +3380,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3401,11 +3413,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3417,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3434,11 +3446,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3457,24 +3469,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3483,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,11 +3512,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3516,31 +3528,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3566,11 +3578,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3582,14 +3594,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,11 +3644,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3648,7 +3660,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3665,11 +3677,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3681,14 +3693,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,11 +3710,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3731,11 +3743,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3747,14 +3759,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,11 +3776,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3780,14 +3792,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,11 +3809,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3830,14 +3842,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3853,7 +3865,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3867,7 +3879,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3879,14 +3891,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,14 +3908,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,11 +3941,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3962,11 +3974,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3995,14 +4007,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>236</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4028,14 +4040,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>236</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,14 +4073,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,14 +4106,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,14 +4122,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4127,14 +4139,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,28 +4155,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4183,13 +4195,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4200,7 +4212,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4216,7 +4228,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,11 +4238,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4259,14 +4271,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4275,14 +4287,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4292,14 +4304,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>257</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4308,14 +4320,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4325,14 +4337,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4341,7 +4353,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4358,14 +4370,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4374,14 +4386,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,11 +4403,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4407,14 +4419,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,11 +4436,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4440,14 +4452,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,14 +4469,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4480,7 +4492,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4490,11 +4502,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4506,14 +4518,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4523,14 +4535,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4539,14 +4551,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4556,11 +4568,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4572,14 +4584,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4589,49 +4601,115 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>275</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>16</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>36</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>126</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>277</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>278</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>36</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>227</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q101" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5520.7200000000003</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>275</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>276</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>277</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5581.7200000000003</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>279</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>280</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>281</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5115,10 +5193,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -356,6 +356,15 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.50</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -506,6 +515,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>LUNGOCORT 0.25MG\2ML AMP</t>
   </si>
   <si>
@@ -836,6 +854,9 @@
     <t>8.00</t>
   </si>
   <si>
+    <t>معجون سيجنال بالفحم</t>
+  </si>
+  <si>
     <t>ملك العود مسك</t>
   </si>
   <si>
@@ -848,7 +869,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:26 PM</t>
+    <t>Tuesday, 15 July, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2479,7 +2500,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2512,7 +2533,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2545,7 +2566,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2555,14 +2576,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2571,14 +2592,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2588,14 +2609,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2611,7 +2632,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2628,7 +2649,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2677,7 +2698,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2710,7 +2731,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2727,7 +2748,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2743,7 +2764,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2769,7 +2790,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2786,14 +2807,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2826,7 +2847,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2842,7 +2863,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2859,7 +2880,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2875,7 +2896,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2885,11 +2906,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2901,7 +2922,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2941,7 +2962,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2955,10 +2976,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3000,7 +3021,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3050,11 +3071,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,11 +3104,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3116,11 +3137,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3132,31 +3153,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3172,7 +3193,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3198,31 +3219,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3271,7 +3292,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3304,7 +3325,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3321,7 +3342,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3337,7 +3358,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3370,7 +3391,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3387,7 +3408,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3403,7 +3424,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3436,7 +3457,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3469,7 +3490,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,11 +3500,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,11 +3533,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3528,31 +3549,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,11 +3599,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3601,24 +3622,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,7 +3648,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3644,11 +3665,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3660,14 +3681,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3677,14 +3698,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3693,14 +3714,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3710,11 +3731,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3726,7 +3747,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3743,11 +3764,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3759,14 +3780,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,11 +3797,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3792,14 +3813,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,7 +3830,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3832,7 +3853,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3865,7 +3886,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3898,7 +3919,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,14 +3929,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3941,11 +3962,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3957,14 +3978,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3974,14 +3995,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3997,7 +4018,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4011,7 +4032,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4023,14 +4044,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,11 +4061,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4056,14 +4077,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4073,14 +4094,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>240</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4096,7 +4117,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4106,14 +4127,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>149</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>240</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4122,14 +4143,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4139,14 +4160,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>94</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4162,7 +4183,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4179,7 +4200,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4195,7 +4216,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4205,14 +4226,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4228,21 +4249,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4254,31 +4275,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4287,14 +4308,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4304,11 +4325,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4320,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4337,14 +4358,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,14 +4391,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4386,14 +4407,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,14 +4424,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4419,7 +4440,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4436,14 +4457,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4452,14 +4473,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4469,11 +4490,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4485,14 +4506,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4502,11 +4523,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>60</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4518,14 +4539,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4535,14 +4556,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4551,14 +4572,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4568,11 +4589,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4584,14 +4605,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4601,14 +4622,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4624,7 +4645,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4634,11 +4655,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4650,14 +4671,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4667,49 +4688,148 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>281</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>94</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>36</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>95</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>282</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>16</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>36</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>129</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>284</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>285</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>36</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>233</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q103" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5581.7200000000003</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>279</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>280</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>281</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5839.2200000000003</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>286</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>287</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>288</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5203,10 +5323,25 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -422,6 +422,12 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -503,9 +509,6 @@
     <t>LEVANIC 750 MG 5 TAB</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -869,7 +872,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:28 PM</t>
+    <t>Tuesday, 15 July, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2745,7 +2748,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2757,14 +2760,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,14 +2777,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2790,14 +2793,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2807,14 +2810,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2840,14 +2843,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2856,7 +2859,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2873,14 +2876,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2889,14 +2892,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,14 +2909,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2922,14 +2925,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2939,11 +2942,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2955,7 +2958,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2972,14 +2975,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2988,14 +2991,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,14 +3008,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3028,7 +3031,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,14 +3041,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3071,14 +3074,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,11 +3107,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3127,7 +3130,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,11 +3140,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3160,7 +3163,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,11 +3206,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3219,31 +3222,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3252,31 +3255,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3285,14 +3288,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,11 +3305,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3335,14 +3338,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,14 +3387,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,11 +3404,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3417,7 +3420,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3434,11 +3437,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3549,14 +3552,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,14 +3569,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3582,14 +3585,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,14 +3602,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3622,21 +3625,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3648,28 +3651,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,14 +3701,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,11 +3767,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3787,7 +3790,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,11 +3800,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3820,7 +3823,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3830,11 +3833,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,11 +3866,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,11 +3899,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,11 +3965,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,14 +3998,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4018,7 +4021,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,14 +4031,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,11 +4097,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,11 +4130,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,14 +4163,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>101</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4226,14 +4229,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>94</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4292,14 +4295,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,31 +4311,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4348,7 +4351,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,11 +4361,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4391,11 +4394,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>130</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4407,14 +4410,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4424,14 +4427,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4447,7 +4450,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4457,14 +4460,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4490,14 +4493,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4523,11 +4526,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4539,14 +4542,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4556,11 +4559,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4589,11 +4592,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4612,7 +4615,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4622,14 +4625,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4638,14 +4641,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4655,14 +4658,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4671,14 +4674,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4688,11 +4691,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4721,11 +4724,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4744,7 +4747,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4754,11 +4757,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4770,14 +4773,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4787,49 +4790,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>285</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>286</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>36</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>234</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q106" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5839.2200000000003</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>286</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c t="s" r="Q107" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5905.2200000000003</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
         <v>287</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
         <v>288</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>289</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5338,10 +5374,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -587,6 +587,9 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 20 GM</t>
   </si>
   <si>
@@ -749,15 +752,15 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -872,7 +875,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:29 PM</t>
+    <t>Tuesday, 15 July, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3493,24 +3496,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3519,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3536,14 +3539,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3552,14 +3555,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3569,14 +3572,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3585,14 +3588,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3602,14 +3605,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3635,14 +3638,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3658,21 +3661,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3684,28 +3687,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3717,14 +3720,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3734,14 +3737,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3750,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3767,14 +3770,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3783,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3800,11 +3803,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3823,7 +3826,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3833,11 +3836,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3856,7 +3859,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3866,11 +3869,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3882,14 +3885,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3899,11 +3902,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3915,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3932,11 +3935,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3948,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3965,11 +3968,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3981,14 +3984,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3998,11 +4001,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4014,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4031,14 +4034,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4054,7 +4057,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4064,14 +4067,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4080,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4097,11 +4100,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4130,11 +4133,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4146,14 +4149,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4163,11 +4166,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4179,14 +4182,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4196,14 +4199,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>247</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4212,14 +4215,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4229,14 +4232,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>247</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4245,14 +4248,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4262,14 +4265,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>94</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4278,14 +4281,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4295,14 +4298,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4311,14 +4314,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4328,14 +4331,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4344,31 +4347,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4384,7 +4387,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4394,11 +4397,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4410,14 +4413,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4427,11 +4430,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4443,14 +4446,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4460,14 +4463,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4483,7 +4486,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4493,14 +4496,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4526,14 +4529,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4559,11 +4562,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4575,14 +4578,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4592,11 +4595,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4625,11 +4628,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4648,7 +4651,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4658,14 +4661,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4674,14 +4677,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4691,14 +4694,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4707,14 +4710,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4724,11 +4727,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4740,14 +4743,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4757,11 +4760,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>95</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4780,7 +4783,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4790,11 +4793,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4806,14 +4809,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4823,49 +4826,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>286</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>287</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>36</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>235</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5905.2200000000003</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>287</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c t="s" r="Q108" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5949.0500000000002</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
         <v>288</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
         <v>289</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>290</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5379,10 +5415,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -110,10 +110,16 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>19.8000</t>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>ARTISOY 30 TAB</t>
@@ -338,6 +344,15 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -758,9 +773,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -875,7 +887,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:31 PM</t>
+    <t>Tuesday, 15 July, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1681,7 +1693,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1691,14 +1703,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1707,7 +1719,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1720,15 +1732,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>28</v>
@@ -1740,28 +1752,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1773,7 +1785,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1790,11 +1802,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1806,14 +1818,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1823,11 +1835,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>28</v>
@@ -1839,7 +1851,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1860,7 +1872,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>28</v>
@@ -1872,7 +1884,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1889,11 +1901,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1905,14 +1917,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1922,11 +1934,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1938,7 +1950,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1955,11 +1967,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1988,11 +2000,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>28</v>
@@ -2004,7 +2016,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2021,11 +2033,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2054,14 +2066,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2070,14 +2082,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2087,11 +2099,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2120,11 +2132,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2153,11 +2165,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2169,7 +2181,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2186,11 +2198,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2202,14 +2214,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2219,11 +2231,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2285,11 +2297,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -2301,7 +2313,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2318,11 +2330,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2334,7 +2346,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2351,11 +2363,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>28</v>
@@ -2367,14 +2379,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2384,11 +2396,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2400,7 +2412,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2417,11 +2429,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2450,14 +2462,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2466,14 +2478,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,14 +2495,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2499,14 +2511,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2516,11 +2528,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2532,14 +2544,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2549,11 +2561,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2565,14 +2577,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2582,11 +2594,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2598,14 +2610,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2615,14 +2627,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2631,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2648,14 +2660,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2664,14 +2676,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2681,14 +2693,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2697,14 +2709,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,11 +2726,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2730,14 +2742,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2747,11 +2759,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2763,7 +2775,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2780,11 +2792,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2796,14 +2808,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2829,14 +2841,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2846,14 +2858,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2862,7 +2874,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2879,14 +2891,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2895,7 +2907,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2912,14 +2924,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2928,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2945,14 +2957,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2961,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2978,11 +2990,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2994,7 +3006,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3011,14 +3023,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3044,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3093,7 +3105,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3110,14 +3122,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3126,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,11 +3188,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3192,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3209,11 +3221,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3225,14 +3237,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3242,11 +3254,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3258,31 +3270,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3291,31 +3303,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3324,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3341,11 +3353,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3357,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3407,14 +3419,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3423,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3440,11 +3452,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3456,7 +3468,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3473,11 +3485,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3489,28 +3501,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3522,31 +3534,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3555,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,14 +3584,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3588,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3621,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3654,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,14 +3683,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3687,28 +3699,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3720,28 +3732,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3753,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,14 +3782,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3786,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3815,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3831,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,11 +3848,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3852,14 +3864,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,11 +3881,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3885,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,11 +3914,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3918,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3951,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,11 +3980,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3984,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,11 +4013,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4017,14 +4029,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,11 +4046,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4050,14 +4062,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,14 +4079,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4083,14 +4095,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,14 +4112,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4116,14 +4128,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,11 +4145,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4149,14 +4161,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,11 +4178,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4182,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,11 +4211,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4215,14 +4227,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4232,14 +4244,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4248,14 +4260,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,14 +4277,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>249</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,14 +4293,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4302,10 +4314,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4314,14 +4326,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4331,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,14 +4359,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4364,14 +4376,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4380,31 +4392,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,28 +4425,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>62</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4446,28 +4458,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4479,31 +4491,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4512,31 +4524,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4545,31 +4557,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,28 +4590,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4611,28 +4623,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4644,28 +4656,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4677,31 +4689,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4710,31 +4722,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4743,20 +4755,20 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4764,7 +4776,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4776,28 +4788,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4809,28 +4821,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4842,66 +4854,99 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>290</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>291</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>38</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>240</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5949.0500000000002</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>288</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>289</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>290</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5989.6400000000003</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>292</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>293</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>294</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5420,10 +5465,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -182,6 +182,12 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>BON-ONE 0.25 MCG 30 TABS.</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -203,6 +209,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -269,6 +284,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>DAPABLIX 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -566,6 +590,12 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>NEBILET 5MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
     <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -725,6 +755,15 @@
     <t>77.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -773,9 +812,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>32.6400</t>
   </si>
   <si>
@@ -887,7 +923,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:33 PM</t>
+    <t>Tuesday, 15 July, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1924,7 +1960,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1934,14 +1970,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1950,14 +1986,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1967,11 +2003,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1983,14 +2019,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2000,14 +2036,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2016,28 +2052,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -2049,14 +2085,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2066,14 +2102,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2082,14 +2118,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2099,11 +2135,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2122,7 +2158,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2139,7 +2175,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2148,14 +2184,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2165,14 +2201,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2181,14 +2217,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2198,11 +2234,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2214,14 +2250,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2231,14 +2267,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2247,14 +2283,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2264,14 +2300,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2280,14 +2316,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2297,11 +2333,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -2313,14 +2349,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,11 +2366,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2346,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2363,14 +2399,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2379,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2396,14 +2432,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2412,7 +2448,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2429,11 +2465,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2445,7 +2481,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2462,11 +2498,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>28</v>
@@ -2478,14 +2514,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2495,14 +2531,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2511,7 +2547,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2528,11 +2564,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2544,14 +2580,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2561,14 +2597,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2577,14 +2613,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,14 +2630,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2610,7 +2646,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2627,11 +2663,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2643,14 +2679,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2660,14 +2696,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2676,14 +2712,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2693,14 +2729,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2709,14 +2745,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2726,11 +2762,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2742,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2759,14 +2795,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2775,14 +2811,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,14 +2828,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2815,7 +2851,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2848,7 +2884,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2865,7 +2901,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2891,14 +2927,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2947,7 +2983,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2964,7 +3000,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2980,7 +3016,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,14 +3026,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,7 +3042,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3023,11 +3059,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3039,7 +3075,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3056,11 +3092,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -3072,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3089,14 +3125,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3105,14 +3141,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3122,14 +3158,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3138,14 +3174,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3155,14 +3191,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3171,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3188,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3204,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3221,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3237,7 +3273,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3254,11 +3290,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3270,14 +3306,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,11 +3323,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3303,31 +3339,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3343,7 +3379,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3389,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3393,7 +3429,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3409,24 +3445,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3442,7 +3478,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,11 +3488,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3468,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,11 +3521,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3501,14 +3537,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,11 +3554,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3534,31 +3570,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3574,7 +3610,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3591,7 +3627,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3607,7 +3643,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3640,7 +3676,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3657,7 +3693,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3673,21 +3709,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3699,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,11 +3752,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3732,31 +3768,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,7 +3801,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3782,11 +3818,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3798,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,11 +3851,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>28</v>
@@ -3831,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,11 +3884,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3877,15 +3913,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3897,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,11 +3950,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3930,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,14 +3983,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3963,7 +3999,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3980,11 +4016,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3996,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4029,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,11 +4082,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4062,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,11 +4115,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4095,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4135,7 +4171,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4149,7 +4185,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4161,14 +4197,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4201,7 +4237,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4234,7 +4270,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4244,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4277,14 +4313,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4310,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4343,14 +4379,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,7 +4395,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4376,11 +4412,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4392,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4445,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,31 +4461,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>96</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4465,24 +4501,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4491,20 +4527,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4512,10 +4548,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4531,24 +4567,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>84</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,31 +4593,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,14 +4626,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,11 +4643,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4623,7 +4659,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4640,11 +4676,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4656,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4673,11 +4709,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4689,14 +4725,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,14 +4742,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,14 +4758,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,14 +4775,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4755,14 +4791,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,11 +4808,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4788,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4805,11 +4841,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4821,14 +4857,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4838,11 +4874,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4854,14 +4890,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4871,11 +4907,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4887,14 +4923,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4904,49 +4940,214 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5989.6400000000003</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>292</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>293</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>104</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>38</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
         <v>294</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>296</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>297</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>38</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>298</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>299</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>104</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>38</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>105</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>300</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>16</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>38</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>142</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>302</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>303</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>38</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>253</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6217.3100000000004</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>304</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>305</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>306</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5470,10 +5671,35 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:39 PM</t>
+    <t>Tuesday, 15 July, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -680,9 +689,6 @@
     <t>REVIVODERM CREAM</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -923,7 +929,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:44 PM</t>
+    <t>Tuesday, 15 July, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,7 +2032,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2043,7 +2049,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2059,13 +2065,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2092,24 +2098,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2118,14 +2124,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2142,7 +2148,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2158,7 +2164,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2175,7 +2181,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2184,14 +2190,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,14 +2207,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2217,14 +2223,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2234,11 +2240,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -2257,7 +2263,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2283,14 +2289,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2307,7 +2313,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2323,7 +2329,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2340,7 +2346,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2356,7 +2362,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2366,14 +2372,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2399,14 +2405,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2415,14 +2421,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2432,14 +2438,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2472,7 +2478,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2505,7 +2511,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2521,7 +2527,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2538,7 +2544,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2554,7 +2560,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2604,7 +2610,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2620,7 +2626,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2630,14 +2636,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2653,7 +2659,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2686,7 +2692,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2719,7 +2725,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2752,7 +2758,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2785,7 +2791,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2828,14 +2834,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>143</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2851,7 +2857,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2868,7 +2874,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2917,7 +2923,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2931,7 +2937,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2943,7 +2949,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2960,11 +2966,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2983,7 +2989,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3000,7 +3006,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3016,7 +3022,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3042,7 +3048,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3099,7 +3105,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3115,7 +3121,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3132,7 +3138,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3148,7 +3154,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,11 +3164,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3174,7 +3180,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3191,14 +3197,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3214,7 +3220,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3228,10 +3234,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3273,7 +3279,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3323,11 +3329,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3422,7 +3428,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3445,24 +3451,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3478,24 +3484,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,7 +3527,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3544,7 +3550,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3558,7 +3564,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3610,7 +3616,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3627,7 +3633,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3643,7 +3649,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3709,21 +3715,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3735,31 +3741,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3775,7 +3781,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3792,7 +3798,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3808,7 +3814,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3825,7 +3831,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3841,7 +3847,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3900,28 +3906,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3940,21 +3946,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,14 +3989,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4006,7 +4012,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4022,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4039,7 +4045,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,11 +4055,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4065,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4098,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,11 +4121,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4138,7 +4144,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,11 +4154,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4164,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,11 +4187,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4197,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,11 +4220,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,11 +4253,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4263,14 +4269,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,11 +4319,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>53</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4352,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4369,7 +4375,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,11 +4385,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4395,14 +4401,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,11 +4418,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4428,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,7 +4451,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4468,7 +4474,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4484,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4534,7 +4540,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,14 +4550,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>104</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,14 +4566,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4581,10 +4587,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,14 +4599,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4610,14 +4616,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,31 +4632,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,11 +4682,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>67</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4692,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4709,11 +4715,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>143</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4732,7 +4738,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4742,14 +4748,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,14 +4781,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,7 +4797,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4808,14 +4814,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,7 +4830,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4841,11 +4847,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4857,14 +4863,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,11 +4880,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4890,14 +4896,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,11 +4913,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4923,14 +4929,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>292</v>
+        <v>98</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,14 +4946,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4963,7 +4969,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,14 +4979,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4989,14 +4995,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>297</v>
+        <v>107</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,11 +5012,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5022,14 +5028,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>104</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5039,11 +5045,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5055,14 +5061,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5072,11 +5078,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5095,7 +5101,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5105,49 +5111,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>304</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>305</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>38</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>255</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6217.3100000000004</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>304</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>305</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c t="s" r="Q115" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6243.0500000000002</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>306</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>307</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>308</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5696,10 +5735,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -929,7 +929,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:45 PM</t>
+    <t>Tuesday, 15 July, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -872,6 +881,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -929,7 +941,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:47 PM</t>
+    <t>Tuesday, 15 July, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2065,7 +2077,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2098,13 +2110,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2131,24 +2143,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2181,7 +2193,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2197,7 +2209,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2214,7 +2226,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2273,11 +2285,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2296,7 +2308,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2346,7 +2358,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2362,7 +2374,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2379,7 +2391,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2395,7 +2407,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2438,14 +2450,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2454,14 +2466,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2511,7 +2523,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2544,7 +2556,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2560,7 +2572,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2577,7 +2589,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2593,7 +2605,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2643,7 +2655,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2659,7 +2671,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2692,7 +2704,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2725,7 +2737,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2758,7 +2770,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2791,7 +2803,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2824,7 +2836,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>143</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2890,7 +2902,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2907,7 +2919,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2956,7 +2968,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2970,7 +2982,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2982,7 +2994,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2999,11 +3011,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3022,7 +3034,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3039,7 +3051,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3055,7 +3067,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3081,7 +3093,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3098,14 +3110,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3138,7 +3150,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3154,7 +3166,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3171,7 +3183,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3187,7 +3199,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3197,11 +3209,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3213,7 +3225,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3230,14 +3242,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3253,7 +3265,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3267,10 +3279,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,14 +3291,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3312,7 +3324,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3362,11 +3374,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3395,11 +3407,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,11 +3440,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,7 +3473,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3484,24 +3496,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3517,24 +3529,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,7 +3572,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3583,7 +3595,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3597,7 +3609,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3609,14 +3621,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3649,7 +3661,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3666,7 +3678,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3682,7 +3694,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3748,21 +3760,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3774,31 +3786,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3814,7 +3826,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3831,7 +3843,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3847,7 +3859,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3864,7 +3876,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3880,7 +3892,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,14 +3902,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,14 +3935,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,28 +3951,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3972,24 +3984,24 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4012,7 +4024,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4034,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4050,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,11 +4100,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,11 +4133,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,11 +4166,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,7 +4199,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4210,7 +4222,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4243,7 +4255,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4276,7 +4288,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4309,7 +4321,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4326,7 +4338,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4342,7 +4354,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4422,7 +4434,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4434,14 +4446,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4474,7 +4486,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,11 +4496,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4500,14 +4512,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4517,14 +4529,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4540,7 +4552,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,14 +4562,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,14 +4578,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,14 +4595,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>107</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4606,7 +4618,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,14 +4628,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4639,7 +4651,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4656,7 +4668,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4672,24 +4684,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>67</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,14 +4710,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,11 +4727,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4738,7 +4750,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4752,7 +4764,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4764,14 +4776,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,14 +4793,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4797,14 +4809,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4814,14 +4826,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,7 +4842,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4847,14 +4859,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4863,7 +4875,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4880,11 +4892,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4896,14 +4908,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4913,11 +4925,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4929,14 +4941,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4946,11 +4958,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4962,14 +4974,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4979,14 +4991,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4995,14 +5007,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>107</v>
+        <v>298</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5012,14 +5024,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5028,14 +5040,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>110</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5049,7 +5061,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5061,14 +5073,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>107</v>
+        <v>303</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5078,11 +5090,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5094,14 +5106,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5111,11 +5123,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5127,14 +5139,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5144,49 +5156,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>308</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>309</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>38</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>258</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6243.0500000000002</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>306</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>307</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>308</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q116" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6443.0500000000002</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>310</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>311</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>312</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5740,10 +5785,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -377,6 +377,12 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -881,7 +887,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -896,6 +902,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -941,7 +959,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 8:50 PM</t>
+    <t>Tuesday, 15 July, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2638,7 +2656,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2652,10 +2670,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2664,7 +2682,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2747,14 +2765,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,11 +2798,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2813,11 +2831,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2846,11 +2864,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2912,14 +2930,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2961,7 +2979,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2978,11 +2996,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3011,11 +3029,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3048,7 +3066,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3077,14 +3095,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3159,7 +3177,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3242,11 +3260,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3258,7 +3276,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3331,7 +3349,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3374,14 +3392,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3390,14 +3408,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3407,11 +3425,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3440,11 +3458,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3456,14 +3474,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3473,11 +3491,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3496,7 +3514,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3506,11 +3524,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3522,31 +3540,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3555,31 +3573,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3595,7 +3613,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3605,11 +3623,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3661,7 +3679,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3675,10 +3693,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3737,11 +3755,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3753,7 +3771,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3770,11 +3788,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3786,28 +3804,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3819,31 +3837,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3852,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3869,14 +3887,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3885,14 +3903,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3902,14 +3920,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3951,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3968,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3984,28 +4002,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4024,21 +4042,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>64</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4090,7 +4108,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4123,7 +4141,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,11 +4151,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4149,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,11 +4184,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,11 +4217,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4222,7 +4240,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,11 +4250,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4248,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,11 +4283,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4298,11 +4316,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4314,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,11 +4349,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,14 +4382,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4380,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,11 +4415,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>28</v>
@@ -4413,14 +4431,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4453,7 +4471,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,11 +4481,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4496,11 +4514,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4512,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4529,7 +4547,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4552,7 +4570,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,14 +4580,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,14 +4596,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>36</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4595,14 +4613,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4618,7 +4636,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>36</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4628,14 +4646,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4665,10 +4683,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4677,14 +4695,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4694,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4710,31 +4728,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4760,11 +4778,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4776,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4793,11 +4811,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4816,7 +4834,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4826,14 +4844,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4842,14 +4860,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4859,14 +4877,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>290</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4892,14 +4910,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4908,7 +4926,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4925,11 +4943,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4941,14 +4959,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4958,11 +4976,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4974,14 +4992,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>101</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4991,11 +5009,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5007,14 +5025,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5024,14 +5042,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5040,14 +5058,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5057,11 +5075,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5073,14 +5091,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5090,14 +5108,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5123,11 +5141,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5139,14 +5157,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5156,11 +5174,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>148</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5172,14 +5190,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5189,49 +5207,115 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>312</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>16</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>38</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>150</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>314</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>315</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>38</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>260</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6443.0500000000002</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>310</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>311</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>312</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6517.0500000000002</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>316</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>317</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>318</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5790,10 +5874,20 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -959,7 +959,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:03 PM</t>
+    <t>Tuesday, 15 July, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>0:-3</t>
   </si>
   <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -959,7 +971,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:13 PM</t>
+    <t>Tuesday, 15 July, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2293,7 +2305,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2303,11 +2315,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2336,11 +2348,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2376,7 +2388,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2392,7 +2404,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2402,14 +2414,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2475,7 +2487,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2508,7 +2520,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2534,14 +2546,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2557,7 +2569,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2583,7 +2595,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2666,14 +2678,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2699,14 +2711,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2715,7 +2727,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2732,14 +2744,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2831,11 +2843,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2864,11 +2876,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,11 +2909,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2953,7 +2965,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2996,14 +3008,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3012,7 +3024,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3029,11 +3041,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3062,11 +3074,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3078,7 +3090,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3095,11 +3107,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3128,14 +3140,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3177,7 +3189,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3194,14 +3206,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3210,7 +3222,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3227,14 +3239,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3293,11 +3305,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3309,7 +3321,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3326,14 +3338,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3342,14 +3354,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3359,14 +3371,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3408,7 +3420,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3425,14 +3437,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,11 +3470,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3491,11 +3503,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3524,11 +3536,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,11 +3569,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3573,20 +3585,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3594,10 +3606,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3606,31 +3618,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3656,11 +3668,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,11 +3701,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3767,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,11 +3800,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3804,7 +3816,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3821,11 +3833,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3837,28 +3849,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3870,31 +3882,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +3965,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3969,14 +3981,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3993,7 +4005,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4009,7 +4021,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4035,28 +4047,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4068,28 +4080,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4130,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4167,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,11 +4196,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4200,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,11 +4229,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,11 +4262,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,11 +4295,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,11 +4328,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,11 +4361,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4365,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,11 +4394,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,14 +4427,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4431,14 +4443,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,11 +4460,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>53</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4464,14 +4476,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4493,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,14 +4509,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,11 +4526,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4537,7 +4549,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,11 +4559,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4563,14 +4575,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,11 +4592,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>172</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4596,14 +4608,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,14 +4625,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,14 +4658,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4662,14 +4674,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,14 +4691,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,14 +4724,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,14 +4740,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4761,31 +4773,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,11 +4823,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4827,14 +4839,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,11 +4856,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4860,14 +4872,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,14 +4889,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>95</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,14 +4905,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,14 +4922,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,7 +4938,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4943,14 +4955,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4959,7 +4971,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4976,11 +4988,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4992,14 +5004,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5032,7 +5044,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>101</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5054,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5058,14 +5070,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,11 +5087,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5091,14 +5103,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>105</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,14 +5120,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5124,14 +5136,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,14 +5153,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5157,14 +5169,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>114</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5178,7 +5190,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5190,14 +5202,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5207,11 +5219,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5223,14 +5235,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5240,11 +5252,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5256,14 +5268,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5273,49 +5285,82 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>318</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>319</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>38</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>264</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6517.0500000000002</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>316</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>317</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>318</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c t="s" r="Q119" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6528.0500000000002</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>320</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>321</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>322</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5884,10 +5929,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CALCIMATE 500 MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
   </si>
   <si>
@@ -470,12 +479,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FERRODEP SYRUP 150 ML</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>10.0000</t>
   </si>
   <si>
@@ -938,6 +953,12 @@
     <t>31:0</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
@@ -953,25 +974,19 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>8.00</t>
-  </si>
-  <si>
     <t>معجون سيجنال بالفحم</t>
   </si>
   <si>
     <t>ملك العود مسك</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:15 PM</t>
+    <t>Tuesday, 15 July, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2107,7 +2122,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2140,7 +2155,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2173,13 +2188,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2206,24 +2221,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2256,7 +2271,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2272,7 +2287,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2289,7 +2304,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2348,11 +2363,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2381,11 +2396,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2404,7 +2419,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2454,7 +2469,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2470,7 +2485,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2487,7 +2502,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2503,7 +2518,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2529,14 +2544,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2619,7 +2634,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2652,7 +2667,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2668,7 +2683,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2685,7 +2700,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2701,7 +2716,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2715,10 +2730,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2784,7 +2799,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2800,7 +2815,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2833,7 +2848,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2843,14 +2858,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2866,7 +2881,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2899,7 +2914,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2932,7 +2947,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2965,7 +2980,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,14 +3023,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3064,7 +3079,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3107,11 +3122,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3130,7 +3145,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3163,7 +3178,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3177,10 +3192,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3189,7 +3204,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3229,7 +3244,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3246,7 +3261,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3305,11 +3320,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3321,7 +3336,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3338,14 +3353,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3371,14 +3386,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3404,14 +3419,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3427,7 +3442,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3437,11 +3452,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3453,14 +3468,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3536,11 +3551,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3569,11 +3584,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,11 +3617,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3625,24 +3640,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3691,24 +3706,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3724,7 +3739,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,11 +3749,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
@@ -3774,7 +3789,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3790,7 +3805,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3804,7 +3819,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3833,14 +3848,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,11 +3881,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3882,28 +3897,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>28</v>
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,14 +3947,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3948,28 +3963,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -3981,14 +3996,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3998,11 +4013,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -4014,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,11 +4046,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -4047,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,11 +4079,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4087,24 +4102,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,14 +4128,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,11 +4145,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4153,24 +4168,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4196,11 +4211,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4212,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,14 +4244,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4245,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,11 +4277,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4278,7 +4293,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4295,11 +4310,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4311,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,11 +4343,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4351,7 +4366,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,11 +4376,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4377,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,11 +4409,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4410,14 +4425,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,11 +4442,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4443,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,14 +4475,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4476,14 +4491,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,14 +4508,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4509,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,14 +4541,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4542,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4575,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,11 +4607,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4608,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4625,7 +4640,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4648,7 +4663,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,14 +4673,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4681,7 +4696,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,14 +4706,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4724,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4747,7 +4762,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4757,14 +4772,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,14 +4788,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4794,10 +4809,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>28</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4806,28 +4821,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4839,31 +4854,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,14 +4887,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,11 +4904,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4912,7 +4927,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,14 +4937,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4938,14 +4953,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4955,14 +4970,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>296</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4971,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,14 +5003,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5004,7 +5019,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5021,14 +5036,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5037,14 +5052,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,11 +5069,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5070,14 +5085,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5087,11 +5102,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5110,7 +5125,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,11 +5135,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5136,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5153,14 +5168,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5169,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5186,11 +5201,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5219,14 +5234,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5235,14 +5250,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5252,11 +5267,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5275,7 +5290,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5285,11 +5300,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>154</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5301,14 +5316,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5318,49 +5333,148 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>321</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>117</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>38</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>118</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>322</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>16</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>38</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>67</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>323</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>324</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>38</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>269</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6528.0500000000002</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>320</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>321</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>322</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c t="s" r="Q122" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6806.0500000000002</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>325</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>326</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>327</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5934,10 +6048,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:24 PM</t>
+    <t>Tuesday, 15 July, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -425,10 +425,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>63.8400</t>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>79.6800</t>
   </si>
   <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
@@ -536,6 +536,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>HAIRTONIC 60 CAPS.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -872,6 +881,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
@@ -986,7 +998,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:25 PM</t>
+    <t>Tuesday, 15 July, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2865,7 +2877,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3277,7 +3289,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3303,7 +3315,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3360,7 +3372,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3376,7 +3388,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3393,7 +3405,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3409,7 +3421,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3419,11 +3431,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3435,7 +3447,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3475,7 +3487,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3489,10 +3501,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3534,7 +3546,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3584,11 +3596,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3617,11 +3629,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3650,11 +3662,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3666,14 +3678,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3683,7 +3695,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3706,24 +3718,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3739,24 +3751,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3782,7 +3794,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3805,7 +3817,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3819,7 +3831,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3831,14 +3843,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3848,14 +3860,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3871,7 +3883,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3888,7 +3900,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3904,7 +3916,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3970,21 +3982,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -3996,31 +4008,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4036,7 +4048,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4053,7 +4065,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4069,7 +4081,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4086,7 +4098,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4102,7 +4114,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4112,14 +4124,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,14 +4140,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4157,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,28 +4173,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4194,24 +4206,24 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4234,7 +4246,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,14 +4256,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4260,14 +4272,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4277,14 +4289,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,11 +4322,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4326,14 +4338,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4343,11 +4355,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4359,14 +4371,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4376,11 +4388,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4392,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,7 +4421,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4432,7 +4444,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4465,7 +4477,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4498,7 +4510,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4531,7 +4543,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4548,7 +4560,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4564,7 +4576,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,11 +4586,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4590,14 +4602,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,14 +4619,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4623,14 +4635,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4644,7 +4656,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4656,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4696,7 +4708,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,11 +4718,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4722,14 +4734,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,14 +4751,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4762,7 +4774,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,14 +4784,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>36</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4788,14 +4800,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4817,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>117</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4828,7 +4840,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,14 +4850,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4861,7 +4873,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,14 +4883,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4887,28 +4899,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>73</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4927,13 +4939,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4944,7 +4956,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4960,7 +4972,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,11 +4982,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4986,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,14 +5015,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5019,14 +5031,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,14 +5048,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>301</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5052,14 +5064,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,14 +5081,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5085,7 +5097,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5102,14 +5114,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>305</v>
-      </c>
-      <c t="s" r="Q112" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5125,7 +5137,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,11 +5147,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5151,14 +5163,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,11 +5180,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5184,14 +5196,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5217,14 +5229,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,14 +5246,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5250,14 +5262,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,11 +5279,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5290,7 +5302,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>117</v>
+        <v>317</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,14 +5312,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5316,14 +5328,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,11 +5345,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5349,7 +5361,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5366,11 +5378,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5382,14 +5394,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5399,11 +5411,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5415,14 +5427,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>324</v>
+        <v>117</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5432,49 +5444,115 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>269</v>
+        <v>118</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>326</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>16</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>38</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>67</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>327</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>328</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>38</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>272</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6806.0500000000002</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>325</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>326</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>327</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q124" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>7030.3900000000003</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>329</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>330</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>331</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6063,10 +6141,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -998,7 +998,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:28 PM</t>
+    <t>Tuesday, 15 July, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -293,6 +293,18 @@
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -770,6 +782,12 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -926,7 +944,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -998,7 +1016,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:30 PM</t>
+    <t>Tuesday, 15 July, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2431,7 +2449,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2481,7 +2499,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2497,7 +2515,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2580,7 +2598,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2613,7 +2631,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2662,7 +2680,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2688,7 +2706,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2820,7 +2838,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2936,11 +2954,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2969,11 +2987,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3002,11 +3020,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3058,7 +3076,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3101,14 +3119,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3134,14 +3152,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3150,7 +3168,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3167,11 +3185,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3200,11 +3218,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3216,7 +3234,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3233,11 +3251,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3249,14 +3267,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3282,14 +3300,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3332,14 +3350,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3348,7 +3366,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3381,7 +3399,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3398,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3464,11 +3482,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3480,7 +3498,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3497,14 +3515,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3563,14 +3581,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3579,7 +3597,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3629,11 +3647,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,11 +3680,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,11 +3713,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,11 +3746,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3744,20 +3762,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3765,10 +3783,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3777,31 +3795,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3827,11 +3845,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3860,11 +3878,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3893,14 +3911,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3959,11 +3977,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -3975,7 +3993,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3992,11 +4010,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -4008,28 +4026,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4041,31 +4059,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4124,14 +4142,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4164,7 +4182,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4180,7 +4198,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4206,28 +4224,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4239,28 +4257,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>64</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4338,14 +4356,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,11 +4373,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4388,11 +4406,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,11 +4439,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4454,14 +4472,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,14 +4488,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,7 +4505,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4510,7 +4528,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4543,7 +4561,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4576,7 +4594,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4593,7 +4611,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4609,7 +4627,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4619,14 +4637,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4652,14 +4670,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>60</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4685,14 +4703,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4708,7 +4726,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4722,7 +4740,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4734,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,11 +4769,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4767,14 +4785,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,14 +4802,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>124</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4800,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4817,14 +4835,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,14 +4851,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4850,14 +4868,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>128</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4866,14 +4884,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4883,14 +4901,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4899,14 +4917,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,14 +4934,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4932,14 +4950,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4949,14 +4967,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4972,21 +4990,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4998,31 +5016,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,14 +5049,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5048,11 +5066,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5064,14 +5082,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5081,14 +5099,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>188</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5097,14 +5115,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5114,14 +5132,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>305</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5130,14 +5148,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5147,14 +5165,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>299</v>
+        <v>106</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5163,7 +5181,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5180,14 +5198,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5196,14 +5214,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5213,11 +5231,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5229,14 +5247,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5246,11 +5264,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5262,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5279,11 +5297,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5295,14 +5313,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>112</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,14 +5330,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5328,14 +5346,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5345,11 +5363,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5361,14 +5379,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>117</v>
+        <v>323</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5378,14 +5396,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5394,14 +5412,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5411,11 +5429,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5427,14 +5445,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5444,11 +5462,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>118</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5460,14 +5478,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5477,11 +5495,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>67</v>
+        <v>325</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5493,14 +5511,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>328</v>
+        <v>121</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5510,49 +5528,115 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>332</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>16</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>38</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>67</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>333</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>334</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>38</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>278</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q124" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>7030.3900000000003</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>329</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>330</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>331</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c t="s" r="Q126" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7069.0200000000004</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>335</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>336</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>337</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6151,10 +6235,20 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -266,6 +266,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CHROMAX 60 CAPSULES</t>
   </si>
   <si>
@@ -344,6 +350,15 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -704,6 +719,9 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -755,6 +773,12 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>SCALOGEN HAIR SERUM 120 ML</t>
   </si>
   <si>
@@ -806,12 +830,6 @@
     <t>TEGRETOL 200MG 30 TAB.</t>
   </si>
   <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
     <t>TERBIN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -845,9 +863,6 @@
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
@@ -893,12 +908,15 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8545:0</t>
+    <t>8543:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
@@ -956,9 +974,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -1016,7 +1031,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:36 PM</t>
+    <t>Tuesday, 15 July, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2350,7 +2365,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2393,14 +2408,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2426,11 +2441,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2508,14 +2523,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2525,14 +2540,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2558,14 +2573,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2591,14 +2606,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2607,14 +2622,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2624,14 +2639,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2690,14 +2705,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2706,14 +2721,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2723,14 +2738,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2739,14 +2754,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2756,11 +2771,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2772,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2789,11 +2804,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2805,14 +2820,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2822,11 +2837,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>28</v>
@@ -2845,7 +2860,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2878,7 +2893,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2892,7 +2907,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>28</v>
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2921,14 +2936,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2937,7 +2952,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2954,14 +2969,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2970,14 +2985,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2987,14 +3002,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3003,14 +3018,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3020,11 +3035,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -3036,14 +3051,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3053,11 +3068,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -3069,14 +3084,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3086,14 +3101,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>159</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3102,14 +3117,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3119,11 +3134,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3152,14 +3167,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3208,7 +3223,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3218,14 +3233,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3234,14 +3249,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,11 +3266,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3274,7 +3289,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3307,7 +3322,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3321,10 +3336,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3333,14 +3348,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3350,14 +3365,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3366,14 +3381,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3383,14 +3398,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3406,7 +3421,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3423,7 +3438,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3482,11 +3497,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3498,7 +3513,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,14 +3563,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3564,14 +3579,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3581,14 +3596,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3604,7 +3619,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3614,11 +3629,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3647,14 +3662,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3680,14 +3695,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3713,11 +3728,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3746,11 +3761,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3762,14 +3777,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3779,11 +3794,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3802,24 +3817,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3845,14 +3860,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3868,24 +3883,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3901,7 +3916,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3911,11 +3926,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3951,7 +3966,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3967,7 +3982,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3981,7 +3996,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -3993,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,14 +4025,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4026,14 +4041,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4043,11 +4058,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4059,28 +4074,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -4092,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,14 +4124,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,14 +4157,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,31 +4173,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4191,14 +4206,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4208,14 +4223,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4224,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,14 +4256,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4257,28 +4272,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4290,14 +4305,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4314,7 +4329,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4330,7 +4345,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4340,14 +4355,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,28 +4371,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4389,14 +4404,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4406,11 +4421,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4429,7 +4444,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,11 +4454,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4455,14 +4470,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,11 +4487,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>28</v>
@@ -4488,14 +4503,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,11 +4520,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4521,14 +4536,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4538,11 +4553,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4561,7 +4576,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4571,11 +4586,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4587,14 +4602,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,14 +4619,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4620,14 +4635,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,11 +4652,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4653,14 +4668,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,14 +4685,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4686,14 +4701,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,14 +4718,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4719,7 +4734,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4736,11 +4751,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4752,14 +4767,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,11 +4784,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4785,14 +4800,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4802,14 +4817,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4818,14 +4833,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4835,14 +4850,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,14 +4866,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,14 +4883,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4884,14 +4899,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,14 +4916,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,14 +4932,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,14 +4949,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>216</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,14 +4965,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4967,11 +4982,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4983,14 +4998,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,14 +5015,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5016,14 +5031,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5033,14 +5048,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,31 +5064,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,28 +5097,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5115,28 +5130,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5148,31 +5163,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,14 +5196,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,14 +5213,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>311</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5214,7 +5229,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5231,11 +5246,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5254,7 +5269,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5268,7 +5283,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5280,14 +5295,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,14 +5312,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,14 +5328,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,14 +5345,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5346,14 +5361,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,11 +5378,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5379,14 +5394,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5396,14 +5411,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5412,14 +5427,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,11 +5444,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5445,14 +5460,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,11 +5477,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5478,14 +5493,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>330</v>
+        <v>117</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5495,11 +5510,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>325</v>
+        <v>73</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5511,14 +5526,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>121</v>
+        <v>328</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5528,14 +5543,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5544,14 +5559,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5561,11 +5576,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5577,14 +5592,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>334</v>
+        <v>126</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5594,49 +5609,181 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>334</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>335</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>38</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>330</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>336</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>126</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>38</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>127</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>337</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>16</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>38</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>67</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>338</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>339</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>38</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>255</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7069.0200000000004</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>335</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>336</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>337</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q130" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7234.0200000000004</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>340</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>341</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>342</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6245,10 +6392,30 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -998,6 +998,12 @@
     <t>31:0</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -1031,7 +1037,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:40 PM</t>
+    <t>Tuesday, 15 July, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5576,11 +5582,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>221</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5599,7 +5605,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5613,7 +5619,7 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>333</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5625,14 +5631,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>335</v>
+        <v>126</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5642,11 +5648,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>221</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
@@ -5665,7 +5671,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>126</v>
+        <v>337</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5675,11 +5681,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>127</v>
+        <v>332</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5691,14 +5697,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5708,11 +5714,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5724,14 +5730,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>339</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5741,49 +5747,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>255</v>
+        <v>67</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>340</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>341</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>38</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>255</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q130" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7234.0200000000004</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>340</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>341</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c t="s" r="Q131" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7249.0200000000004</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>342</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>343</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>344</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6412,10 +6451,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -299,6 +299,18 @@
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -596,6 +608,12 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -614,9 +632,6 @@
     <t>38.00</t>
   </si>
   <si>
-    <t>19.0000</t>
-  </si>
-  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -815,9 +830,6 @@
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
-    <t>130.0000</t>
-  </si>
-  <si>
     <t>SUPRAX 400MG 5 TAB</t>
   </si>
   <si>
@@ -860,6 +872,18 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
@@ -1037,7 +1061,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:49 PM</t>
+    <t>Tuesday, 15 July, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2536,7 +2560,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2546,14 +2570,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2562,14 +2586,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2586,7 +2610,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2602,7 +2626,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2612,14 +2636,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2645,14 +2669,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2661,14 +2685,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2678,14 +2702,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2751,7 +2775,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2760,14 +2784,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2777,14 +2801,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2800,7 +2824,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2810,14 +2834,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2826,7 +2850,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2843,14 +2867,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2876,14 +2900,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2892,14 +2916,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2909,14 +2933,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2925,14 +2949,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2942,14 +2966,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2958,7 +2982,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2975,14 +2999,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2991,14 +3015,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3008,14 +3032,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3024,14 +3048,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3041,14 +3065,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3057,14 +3081,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3074,11 +3098,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3107,11 +3131,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3123,14 +3147,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3140,11 +3164,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3173,14 +3197,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>164</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3196,7 +3220,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3206,14 +3230,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3239,14 +3263,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3255,14 +3279,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3272,14 +3296,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3288,7 +3312,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3305,11 +3329,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3338,11 +3362,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3354,7 +3378,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3404,14 +3428,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3420,14 +3444,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3437,14 +3461,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3470,14 +3494,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3486,7 +3510,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3503,14 +3527,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3519,7 +3543,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3536,14 +3560,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3569,14 +3593,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3585,28 +3609,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3618,14 +3642,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3635,14 +3659,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3651,14 +3675,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3668,14 +3692,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3684,14 +3708,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3701,11 +3725,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3717,14 +3741,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3734,14 +3758,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3750,14 +3774,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3767,14 +3791,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3783,14 +3807,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3800,11 +3824,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3816,14 +3840,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3833,11 +3857,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3849,14 +3873,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3866,11 +3890,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3889,24 +3913,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3915,14 +3939,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3932,14 +3956,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3955,24 +3979,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3988,7 +4012,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3998,11 +4022,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -4038,7 +4062,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4054,7 +4078,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4068,7 +4092,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4097,14 +4121,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4113,14 +4137,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4130,11 +4154,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>28</v>
@@ -4146,14 +4170,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4163,14 +4187,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4179,28 +4203,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>28</v>
@@ -4212,14 +4236,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4229,11 +4253,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4245,28 +4269,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>28</v>
@@ -4278,14 +4302,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4295,11 +4319,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4311,14 +4335,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4328,11 +4352,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>28</v>
@@ -4344,14 +4368,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4361,11 +4385,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4384,24 +4408,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4410,14 +4434,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4427,11 +4451,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4443,24 +4467,24 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>64</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4483,7 +4507,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4493,14 +4517,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4526,11 +4550,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4542,14 +4566,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4559,14 +4583,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4575,14 +4599,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4592,11 +4616,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4608,14 +4632,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4625,14 +4649,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4641,14 +4665,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4658,11 +4682,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4674,14 +4698,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4691,14 +4715,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4714,7 +4738,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4724,11 +4748,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4747,7 +4771,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4780,7 +4804,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4790,11 +4814,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>118</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4806,14 +4830,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4823,14 +4847,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4839,14 +4863,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4856,14 +4880,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4879,7 +4903,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4889,14 +4913,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4905,14 +4929,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>60</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4922,14 +4946,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4938,14 +4962,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4978,7 +5002,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4988,11 +5012,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -5004,14 +5028,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5021,14 +5045,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5044,7 +5068,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5054,14 +5078,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5070,14 +5094,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5087,14 +5111,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>285</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5103,14 +5127,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>28</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5120,14 +5144,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5136,14 +5160,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5153,14 +5177,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5176,7 +5200,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5186,14 +5210,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>28</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5202,28 +5226,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5235,7 +5259,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5248,15 +5272,15 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5268,31 +5292,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5301,14 +5325,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5318,14 +5342,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5334,7 +5358,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5351,14 +5375,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>317</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5367,14 +5391,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5384,11 +5408,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5400,14 +5424,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5417,14 +5441,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5433,14 +5457,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5450,14 +5474,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5466,14 +5490,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5483,11 +5507,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5499,14 +5523,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5516,11 +5540,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5532,14 +5556,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5549,14 +5573,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5565,14 +5589,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5582,11 +5606,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5598,14 +5622,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5615,11 +5639,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>73</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5631,14 +5655,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>126</v>
+        <v>336</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5648,14 +5672,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>335</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5664,14 +5688,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5681,11 +5705,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5697,14 +5721,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5714,11 +5738,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5730,14 +5754,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5747,11 +5771,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>18</v>
@@ -5763,14 +5787,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5780,49 +5804,148 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>346</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>130</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>38</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>131</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>347</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>16</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>38</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>67</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>348</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>349</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>38</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>260</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q131" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>7249.0200000000004</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>342</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>343</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
-        <v>344</v>
-      </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c t="s" r="Q134" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7429.0200000000004</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>350</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>351</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>352</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6456,10 +6579,25 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
   </si>
   <si>
@@ -779,6 +791,15 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>RAPIZAPINE 30 MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>29.40</t>
+  </si>
+  <si>
+    <t>29.4000</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -1010,6 +1031,12 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1037,12 +1064,6 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>مرهم اكتيول اسود</t>
   </si>
   <si>
@@ -1061,7 +1082,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:50 PM</t>
+    <t>Tuesday, 15 July, 2025 9:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1939,7 +1960,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1966,21 +1987,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1992,14 +2013,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2016,7 +2037,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2032,7 +2053,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2042,11 +2063,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>28</v>
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2075,14 +2096,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2091,14 +2112,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2108,14 +2129,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2141,14 +2162,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2164,7 +2185,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2174,14 +2195,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2190,7 +2211,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2207,14 +2228,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2240,11 +2261,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2273,11 +2294,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2289,28 +2310,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -2322,20 +2343,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2346,7 +2367,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2362,7 +2383,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2372,14 +2393,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2388,7 +2409,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2405,14 +2426,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2421,14 +2442,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2438,14 +2459,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2461,7 +2482,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2471,14 +2492,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2494,7 +2515,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2504,11 +2525,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2520,14 +2541,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2537,14 +2558,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2593,7 +2614,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2603,14 +2624,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2619,14 +2640,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2643,7 +2664,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2659,7 +2680,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2669,14 +2690,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2685,14 +2706,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2702,14 +2723,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2718,14 +2739,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2735,14 +2756,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2808,7 +2829,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2834,14 +2855,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2857,7 +2878,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2883,7 +2904,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2933,14 +2954,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2949,14 +2970,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2966,14 +2987,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2982,14 +3003,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2999,14 +3020,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3015,7 +3036,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3032,14 +3053,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3065,14 +3086,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3081,14 +3102,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3098,14 +3119,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3114,14 +3135,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3131,11 +3152,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3147,14 +3168,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3164,11 +3185,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3180,14 +3201,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3197,11 +3218,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3230,14 +3251,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>168</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3253,7 +3274,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3263,14 +3284,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3296,14 +3317,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3312,14 +3333,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3329,14 +3350,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3345,14 +3366,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3362,11 +3383,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3378,14 +3399,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3395,11 +3416,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3411,7 +3432,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3428,11 +3449,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3444,14 +3465,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3461,14 +3482,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3477,14 +3498,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3510,14 +3531,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3527,14 +3548,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3543,7 +3564,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3560,14 +3581,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3576,7 +3597,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3593,14 +3614,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3609,31 +3630,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3642,28 +3663,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3675,14 +3696,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3692,11 +3713,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3708,7 +3729,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3725,14 +3746,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3741,14 +3762,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3758,14 +3779,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3774,14 +3795,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3791,14 +3812,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3807,7 +3828,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3824,14 +3845,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3840,14 +3861,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3857,11 +3878,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3873,14 +3894,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3890,11 +3911,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3906,14 +3927,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3923,11 +3944,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3939,14 +3960,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3956,11 +3977,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3972,20 +3993,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3993,10 +4014,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4005,31 +4026,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4038,14 +4059,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4055,11 +4076,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -4071,14 +4092,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4088,11 +4109,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4104,14 +4125,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4121,14 +4142,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4137,14 +4158,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4154,14 +4175,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4170,14 +4191,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4187,11 +4208,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4203,7 +4224,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4220,11 +4241,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>28</v>
@@ -4236,14 +4257,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4253,14 +4274,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4269,31 +4290,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4302,31 +4323,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4335,14 +4356,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4352,14 +4373,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4368,14 +4389,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4385,14 +4406,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4401,14 +4422,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>46</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4425,7 +4446,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4441,7 +4462,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4451,14 +4472,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4467,28 +4488,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4500,14 +4521,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,11 +4538,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4533,28 +4554,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4566,14 +4587,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4583,14 +4604,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4599,14 +4620,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4616,11 +4637,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4632,14 +4653,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4649,14 +4670,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4665,14 +4686,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4682,11 +4703,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4698,14 +4719,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4715,14 +4736,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4731,14 +4752,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,11 +4769,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4764,14 +4785,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4781,14 +4802,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4797,14 +4818,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4814,11 +4835,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4830,14 +4851,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4847,11 +4868,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4863,14 +4884,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4880,11 +4901,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>122</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4896,14 +4917,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4913,14 +4934,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4929,14 +4950,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,14 +4967,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4962,14 +4983,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,14 +5000,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4995,14 +5016,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,14 +5033,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5028,14 +5049,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,11 +5066,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5061,14 +5082,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5078,11 +5099,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5101,7 +5122,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5111,11 +5132,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5127,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,14 +5165,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5160,14 +5181,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,14 +5198,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5193,14 +5214,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,14 +5231,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>141</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>293</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5226,14 +5247,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,14 +5264,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5259,14 +5280,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5276,14 +5297,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,14 +5313,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5309,14 +5330,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5325,28 +5346,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5358,31 +5379,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5391,14 +5412,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5408,11 +5429,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5424,14 +5445,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5441,14 +5462,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>112</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5457,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5474,14 +5495,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>325</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5490,14 +5511,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5507,14 +5528,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>319</v>
+        <v>116</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5523,14 +5544,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5540,14 +5561,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>18</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5556,14 +5577,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5573,11 +5594,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>18</v>
@@ -5589,14 +5610,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5606,11 +5627,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5622,14 +5643,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5639,11 +5660,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5655,14 +5676,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5672,14 +5693,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5688,14 +5709,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5705,11 +5726,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5721,14 +5742,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5738,11 +5759,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5754,14 +5775,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>130</v>
+        <v>345</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5771,14 +5792,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>342</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5787,14 +5808,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>345</v>
+        <v>46</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5804,11 +5825,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>340</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>18</v>
@@ -5820,14 +5841,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5837,11 +5858,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>18</v>
@@ -5853,14 +5874,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5870,11 +5891,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>18</v>
@@ -5886,14 +5907,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5903,49 +5924,148 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>353</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>134</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>38</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>135</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>354</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>16</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>38</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>71</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>355</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>356</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>38</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>267</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q134" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7429.0200000000004</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>350</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>351</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>352</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c t="s" r="Q137" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7513.4200000000001</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>357</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>358</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>359</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6594,10 +6714,25 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:53 PM</t>
+    <t>Tuesday, 15 July, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-15_00-00.xlsx
+++ b/DaySale_2025-07-15_00-00.xlsx
@@ -482,6 +482,12 @@
     <t>79.6800</t>
   </si>
   <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -638,12 +644,12 @@
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -737,6 +743,15 @@
     <t>68.3100</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:9</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -779,6 +794,15 @@
     <t>360.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -1001,6 +1025,9 @@
     <t>10.00</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
@@ -1082,7 +1109,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Tuesday, 15 July, 2025 9:54 PM</t>
+    <t>Tuesday, 15 July, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3142,7 +3169,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3156,10 +3183,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3168,14 +3195,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3185,11 +3212,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3201,14 +3228,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3218,11 +3245,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3234,14 +3261,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3251,11 +3278,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -3267,14 +3294,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3284,14 +3311,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>172</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3300,14 +3327,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3317,14 +3344,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3333,14 +3360,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3350,14 +3377,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3373,7 +3400,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3383,14 +3410,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3399,7 +3426,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3416,11 +3443,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3432,14 +3459,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3449,11 +3476,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3486,7 +3513,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3498,14 +3525,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3515,14 +3542,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3531,14 +3558,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3548,11 +3575,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>132</v>
@@ -3564,14 +3591,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3581,14 +3608,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3614,14 +3641,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3630,7 +3657,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3647,14 +3674,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3663,31 +3690,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3709,15 +3736,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3729,14 +3756,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3746,11 +3773,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3762,14 +3789,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3779,14 +3806,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3795,14 +3822,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3812,14 +3839,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3835,7 +3862,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3845,14 +3872,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3878,14 +3905,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3894,14 +3921,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3911,11 +3938,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3927,14 +3954,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3944,11 +3971,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3960,14 +3987,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3977,11 +4004,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -4000,7 +4027,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4010,11 +4037,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -4026,31 +4053,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4059,31 +4086,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4099,7 +4126,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4109,11 +4136,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4125,14 +4152,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4142,11 +4169,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -4165,7 +4192,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4179,10 +4206,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4191,14 +4218,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4208,14 +4235,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4224,14 +4251,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4241,11 +4268,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>28</v>
@@ -4257,7 +4284,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4274,11 +4301,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>28</v>
@@ -4290,14 +4317,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4307,14 +4334,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4323,28 +4350,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>28</v>
@@ -4356,14 +4383,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4373,11 +4400,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4389,28 +4416,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>28</v>
@@ -4422,14 +4449,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4439,11 +4466,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4455,14 +4482,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4472,11 +4499,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4488,7 +4515,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4505,11 +4532,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4521,28 +4548,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4561,24 +4588,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4587,7 +4614,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4604,11 +4631,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4620,14 +4647,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4637,11 +4664,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4653,31 +4680,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4686,7 +4713,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4703,11 +4730,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4719,14 +4746,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4736,11 +4763,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>138</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4752,14 +4779,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4769,14 +4796,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4785,14 +4812,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4802,14 +4829,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4818,7 +4845,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4835,11 +4862,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4851,14 +4878,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4868,11 +4895,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4884,14 +4911,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,14 +4928,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4917,7 +4944,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4934,11 +4961,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>192</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4950,14 +4977,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4967,11 +4994,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4983,14 +5010,14 @@
       </c>
       <c r="B106" s="7"/>
       <c 